--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="110">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,23 +161,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>56.5</t>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999903</t>
+  </si>
+  <si>
+    <t>99999904</t>
+  </si>
+  <si>
+    <t>99999905</t>
+  </si>
+  <si>
+    <t>99999906</t>
+  </si>
+  <si>
+    <t>99999907</t>
+  </si>
+  <si>
+    <t>99999908</t>
+  </si>
+  <si>
+    <t>99999909</t>
+  </si>
+  <si>
+    <t>99999910</t>
+  </si>
+  <si>
+    <t>99999911</t>
+  </si>
+  <si>
+    <t>99999912</t>
+  </si>
+  <si>
+    <t>99999913</t>
+  </si>
+  <si>
+    <t>99999914</t>
+  </si>
+  <si>
+    <t>99999915</t>
+  </si>
+  <si>
+    <t>99999916</t>
+  </si>
+  <si>
+    <t>99999917</t>
+  </si>
+  <si>
+    <t>99999918</t>
+  </si>
+  <si>
+    <t>99999919</t>
+  </si>
+  <si>
+    <t>99999920</t>
+  </si>
+  <si>
+    <t>99999921</t>
+  </si>
+  <si>
+    <t>99999922</t>
+  </si>
+  <si>
+    <t>99999923</t>
+  </si>
+  <si>
+    <t>99999924</t>
+  </si>
+  <si>
+    <t>99999925</t>
+  </si>
+  <si>
+    <t>99999926</t>
+  </si>
+  <si>
+    <t>99999927</t>
+  </si>
+  <si>
+    <t>99999928</t>
+  </si>
+  <si>
+    <t>99999929</t>
+  </si>
+  <si>
+    <t>99999930</t>
+  </si>
+  <si>
+    <t>99999931</t>
+  </si>
+  <si>
+    <t>99999932</t>
+  </si>
+  <si>
+    <t>99999933</t>
+  </si>
+  <si>
+    <t>99999934</t>
+  </si>
+  <si>
+    <t>99999935</t>
+  </si>
+  <si>
+    <t>99999936</t>
+  </si>
+  <si>
+    <t>99999937</t>
+  </si>
+  <si>
+    <t>99999938</t>
+  </si>
+  <si>
+    <t>99999939</t>
+  </si>
+  <si>
+    <t>99999940</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.6</t>
+  </si>
+  <si>
+    <t>56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -190,31 +397,14 @@
   </si>
   <si>
     <t>900</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>one_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标书号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,13 +446,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -274,7 +478,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,15 +500,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -315,6 +536,9 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -325,6 +549,9 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,15 +881,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
@@ -670,19 +897,20 @@
     <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="12.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="3" customWidth="1"/>
     <col min="16" max="24" width="7.1640625" style="2" customWidth="1"/>
     <col min="25" max="29" width="10.83203125" style="2"/>
+    <col min="30" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
+      <c r="A1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -691,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -705,7 +933,7 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -714,17 +942,17 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>31</v>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>12</v>
@@ -758,186 +986,186 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>11111111</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>22222222</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
+      <c r="O3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>33333333</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -945,384 +1173,384 @@
       <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>28</v>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="1">
-        <v>44444444</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>28</v>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="1">
-        <v>55555555</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
+      <c r="O6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>66666666</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
+      <c r="O7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="1">
-        <v>77777777</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="1">
-        <v>88888888</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>23</v>
@@ -1330,124 +1558,2511 @@
       <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>28</v>
+      <c r="O9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>99999999</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="O14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="2" t="s">
+      <c r="S14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="U14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="O15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>36</v>
+      <c r="W15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y40" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y41" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="104">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,128 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99999901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999902</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99999903</t>
-  </si>
-  <si>
-    <t>99999904</t>
-  </si>
-  <si>
-    <t>99999905</t>
-  </si>
-  <si>
-    <t>99999906</t>
-  </si>
-  <si>
-    <t>99999907</t>
-  </si>
-  <si>
-    <t>99999908</t>
-  </si>
-  <si>
-    <t>99999909</t>
-  </si>
-  <si>
-    <t>99999910</t>
-  </si>
-  <si>
-    <t>99999911</t>
-  </si>
-  <si>
-    <t>99999912</t>
-  </si>
-  <si>
-    <t>99999913</t>
-  </si>
-  <si>
-    <t>99999914</t>
-  </si>
-  <si>
-    <t>99999915</t>
-  </si>
-  <si>
-    <t>99999916</t>
-  </si>
-  <si>
-    <t>99999917</t>
-  </si>
-  <si>
-    <t>99999918</t>
-  </si>
-  <si>
-    <t>99999919</t>
-  </si>
-  <si>
-    <t>99999920</t>
-  </si>
-  <si>
-    <t>99999921</t>
-  </si>
-  <si>
-    <t>99999922</t>
-  </si>
-  <si>
-    <t>99999923</t>
-  </si>
-  <si>
-    <t>99999924</t>
-  </si>
-  <si>
-    <t>99999925</t>
-  </si>
-  <si>
-    <t>99999926</t>
-  </si>
-  <si>
-    <t>99999927</t>
-  </si>
-  <si>
-    <t>99999928</t>
-  </si>
-  <si>
-    <t>99999929</t>
-  </si>
-  <si>
-    <t>99999930</t>
-  </si>
-  <si>
-    <t>99999931</t>
-  </si>
-  <si>
-    <t>99999932</t>
-  </si>
-  <si>
-    <t>99999933</t>
-  </si>
-  <si>
-    <t>99999934</t>
-  </si>
-  <si>
-    <t>99999935</t>
-  </si>
-  <si>
-    <t>99999936</t>
-  </si>
-  <si>
-    <t>99999937</t>
-  </si>
-  <si>
-    <t>99999938</t>
-  </si>
-  <si>
-    <t>99999939</t>
-  </si>
-  <si>
-    <t>99999940</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -406,6 +284,108 @@
   <si>
     <t>second_advance</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54801061</t>
+  </si>
+  <si>
+    <t>54713450</t>
+  </si>
+  <si>
+    <t>54892189</t>
+  </si>
+  <si>
+    <t>54901243</t>
+  </si>
+  <si>
+    <t>54881000</t>
+  </si>
+  <si>
+    <t>55084907</t>
+  </si>
+  <si>
+    <t>54718801</t>
+  </si>
+  <si>
+    <t>54843504</t>
+  </si>
+  <si>
+    <t>54874968</t>
+  </si>
+  <si>
+    <t>54761365</t>
+  </si>
+  <si>
+    <t>55014771</t>
+  </si>
+  <si>
+    <t>55093633</t>
+  </si>
+  <si>
+    <t>54842242</t>
+  </si>
+  <si>
+    <t>54941594</t>
+  </si>
+  <si>
+    <t>54932494</t>
+  </si>
+  <si>
+    <t>54916346</t>
+  </si>
+  <si>
+    <t>54944729</t>
+  </si>
+  <si>
+    <t>54784658</t>
+  </si>
+  <si>
+    <t>55021636</t>
+  </si>
+  <si>
+    <t>54883639</t>
+  </si>
+  <si>
+    <t>54988437</t>
+  </si>
+  <si>
+    <t>54948574</t>
+  </si>
+  <si>
+    <t>54992627</t>
+  </si>
+  <si>
+    <t>55096187</t>
+  </si>
+  <si>
+    <t>55096928</t>
+  </si>
+  <si>
+    <t>54829631</t>
+  </si>
+  <si>
+    <t>55076833</t>
+  </si>
+  <si>
+    <t>54910528</t>
+  </si>
+  <si>
+    <t>54810215</t>
+  </si>
+  <si>
+    <t>54769349</t>
+  </si>
+  <si>
+    <t>54901178</t>
+  </si>
+  <si>
+    <t>54969350</t>
+  </si>
+  <si>
+    <t>54845074</t>
+  </si>
+  <si>
+    <t>54717311</t>
   </si>
 </sst>
 </file>
@@ -509,7 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,6 +505,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -885,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -923,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -947,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>8</v>
@@ -990,26 +973,26 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+      <c r="A2" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>25</v>
@@ -1021,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>26</v>
@@ -1051,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>32</v>
@@ -1060,33 +1043,33 @@
         <v>24</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
@@ -1098,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>26</v>
@@ -1128,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>32</v>
@@ -1137,33 +1120,33 @@
         <v>24</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>
@@ -1205,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>32</v>
@@ -1214,33 +1197,33 @@
         <v>24</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
+      <c r="A5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>26</v>
@@ -1282,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>32</v>
@@ -1291,33 +1274,33 @@
         <v>24</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
+      <c r="A6" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>25</v>
@@ -1329,7 +1312,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>26</v>
@@ -1359,7 +1342,7 @@
         <v>31</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>32</v>
@@ -1368,33 +1351,33 @@
         <v>24</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
+      <c r="A7" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>25</v>
@@ -1406,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>26</v>
@@ -1436,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>32</v>
@@ -1445,33 +1428,33 @@
         <v>24</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>25</v>
@@ -1483,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>26</v>
@@ -1513,7 +1496,7 @@
         <v>31</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>32</v>
@@ -1522,33 +1505,33 @@
         <v>24</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
+      <c r="A9" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
@@ -1590,7 +1573,7 @@
         <v>31</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>32</v>
@@ -1599,187 +1582,187 @@
         <v>24</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
+      <c r="A10" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="Y11" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
+      <c r="A12" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>25</v>
@@ -1791,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>26</v>
@@ -1821,7 +1804,7 @@
         <v>31</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>32</v>
@@ -1830,33 +1813,33 @@
         <v>24</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
+      <c r="A13" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>25</v>
@@ -1868,7 +1851,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>26</v>
@@ -1898,7 +1881,7 @@
         <v>31</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>32</v>
@@ -1907,33 +1890,33 @@
         <v>24</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
+      <c r="A14" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>25</v>
@@ -1975,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>32</v>
@@ -1984,33 +1967,33 @@
         <v>24</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
+      <c r="A15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>25</v>
@@ -2022,7 +2005,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>26</v>
@@ -2052,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>32</v>
@@ -2061,33 +2044,33 @@
         <v>24</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
+      <c r="A16" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>25</v>
@@ -2099,7 +2082,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>26</v>
@@ -2129,7 +2112,7 @@
         <v>31</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>32</v>
@@ -2138,33 +2121,33 @@
         <v>24</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
+      <c r="A17" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>25</v>
@@ -2176,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>26</v>
@@ -2206,7 +2189,7 @@
         <v>31</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>32</v>
@@ -2215,33 +2198,33 @@
         <v>24</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>25</v>
@@ -2253,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>26</v>
@@ -2283,7 +2266,7 @@
         <v>31</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>32</v>
@@ -2292,33 +2275,33 @@
         <v>24</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
+      <c r="A19" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>25</v>
@@ -2360,7 +2343,7 @@
         <v>31</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>32</v>
@@ -2369,187 +2352,187 @@
         <v>24</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
+      <c r="A20" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
+      <c r="A22" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>25</v>
@@ -2561,7 +2544,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>26</v>
@@ -2591,7 +2574,7 @@
         <v>31</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>32</v>
@@ -2600,33 +2583,33 @@
         <v>24</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y22" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
+      <c r="A23" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>25</v>
@@ -2638,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>26</v>
@@ -2668,7 +2651,7 @@
         <v>31</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>32</v>
@@ -2677,33 +2660,33 @@
         <v>24</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" s="2" t="s">
-        <v>57</v>
+      <c r="A24" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>25</v>
@@ -2745,7 +2728,7 @@
         <v>31</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>32</v>
@@ -2754,33 +2737,33 @@
         <v>24</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
+      <c r="A25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>25</v>
@@ -2792,7 +2775,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>26</v>
@@ -2822,7 +2805,7 @@
         <v>31</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>32</v>
@@ -2831,33 +2814,33 @@
         <v>24</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
+      <c r="A26" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>25</v>
@@ -2869,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>26</v>
@@ -2899,7 +2882,7 @@
         <v>31</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>32</v>
@@ -2908,33 +2891,33 @@
         <v>24</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:25">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
+      <c r="A27" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>25</v>
@@ -2946,7 +2929,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>26</v>
@@ -2976,7 +2959,7 @@
         <v>31</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>32</v>
@@ -2985,33 +2968,33 @@
         <v>24</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
+      <c r="A28" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>25</v>
@@ -3023,7 +3006,7 @@
         <v>21</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>26</v>
@@ -3053,7 +3036,7 @@
         <v>31</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>32</v>
@@ -3062,33 +3045,33 @@
         <v>24</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:25">
-      <c r="A29" s="2" t="s">
-        <v>62</v>
+      <c r="A29" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>25</v>
@@ -3130,7 +3113,7 @@
         <v>31</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V29" s="2" t="s">
         <v>32</v>
@@ -3139,187 +3122,187 @@
         <v>24</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:25">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
+      <c r="A30" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
+      <c r="A31" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="2" t="s">
-        <v>65</v>
+      <c r="A32" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>25</v>
@@ -3331,7 +3314,7 @@
         <v>21</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>26</v>
@@ -3361,7 +3344,7 @@
         <v>31</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>32</v>
@@ -3370,33 +3353,33 @@
         <v>24</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33" s="2" t="s">
-        <v>66</v>
+      <c r="A33" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>25</v>
@@ -3408,7 +3391,7 @@
         <v>21</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>26</v>
@@ -3438,7 +3421,7 @@
         <v>31</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>32</v>
@@ -3447,33 +3430,33 @@
         <v>24</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34" s="2" t="s">
-        <v>67</v>
+      <c r="A34" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>25</v>
@@ -3515,7 +3498,7 @@
         <v>31</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>32</v>
@@ -3524,33 +3507,33 @@
         <v>24</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y34" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
+      <c r="A35" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>25</v>
@@ -3562,7 +3545,7 @@
         <v>21</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>26</v>
@@ -3592,7 +3575,7 @@
         <v>31</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>32</v>
@@ -3601,472 +3584,10 @@
         <v>24</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
-      <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
-      <c r="A39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
-      <c r="A40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -871,7 +871,7 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -884,7 +884,7 @@
     <col min="6" max="6" width="10.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" style="3" customWidth="1"/>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="228">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -746,10 +746,6 @@
   </si>
   <si>
     <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1856,7 +1852,7 @@
   <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:AA57"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1890,7 +1886,7 @@
         <v>157</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -1988,7 +1984,7 @@
         <v>164</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>32</v>
@@ -2071,7 +2067,7 @@
         <v>165</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>35</v>
@@ -2154,7 +2150,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>36</v>
@@ -2237,7 +2233,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>34</v>
@@ -2320,7 +2316,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>34</v>
@@ -2403,7 +2399,7 @@
         <v>169</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>34</v>
@@ -2486,7 +2482,7 @@
         <v>170</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>34</v>
@@ -2569,7 +2565,7 @@
         <v>171</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>34</v>
@@ -2652,7 +2648,7 @@
         <v>172</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>34</v>
@@ -4352,7 +4348,7 @@
         <v>191</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="50" t="s">
         <v>34</v>
@@ -4436,7 +4432,7 @@
         <v>192</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="50" t="s">
         <v>34</v>
@@ -4520,7 +4516,7 @@
         <v>193</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D31" s="50" t="s">
         <v>34</v>
@@ -4604,7 +4600,7 @@
         <v>194</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>34</v>
@@ -4688,7 +4684,7 @@
         <v>198</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>34</v>
@@ -5762,7 +5758,7 @@
         <v>151</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>34</v>
@@ -5842,7 +5838,7 @@
         <v>151</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="56" t="s">
         <v>34</v>
@@ -5922,7 +5918,7 @@
         <v>151</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="56" t="s">
         <v>34</v>
@@ -6002,7 +5998,7 @@
         <v>151</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="56" t="s">
         <v>34</v>
@@ -6082,7 +6078,7 @@
         <v>151</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" s="56" t="s">
         <v>34</v>
@@ -6162,7 +6158,7 @@
         <v>151</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" s="56" t="s">
         <v>34</v>
@@ -6242,7 +6238,7 @@
         <v>151</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" s="56" t="s">
         <v>34</v>
@@ -6322,7 +6318,7 @@
         <v>151</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="56" t="s">
         <v>34</v>
@@ -6402,7 +6398,7 @@
         <v>151</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>34</v>
@@ -6482,7 +6478,7 @@
         <v>151</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>34</v>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="235">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,6 +827,34 @@
   </si>
   <si>
     <t>54874968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6561,13 +6589,13 @@
         <v>54701863</v>
       </c>
       <c r="D56" s="56" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="E56" s="56" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="F56" s="56" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="G56" s="56" t="s">
         <v>20</v>
@@ -6576,7 +6604,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="56" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="J56" s="56" t="s">
         <v>25</v>
@@ -6641,13 +6669,13 @@
         <v>55014660</v>
       </c>
       <c r="D57" s="56" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="E57" s="56" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="F57" s="56" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="G57" s="56" t="s">
         <v>39</v>
@@ -6656,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="I57" s="56" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="J57" s="56" t="s">
         <v>49</v>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="287">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1057,10 @@
   </si>
   <si>
     <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,7 +1300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="214">
+  <cellStyleXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1423,6 +1427,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1779,7 +1789,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="214">
+  <cellStyles count="220">
     <cellStyle name="常规 7" xfId="123"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1887,6 +1897,9 @@
     <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1993,6 +2006,9 @@
     <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2324,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2341,11 +2357,12 @@
     <col min="10" max="10" width="7.83203125" style="83" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="87" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="83" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="83" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" style="87" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="12.83203125" style="87" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="87" hidden="1" customWidth="1"/>
-    <col min="18" max="26" width="7.1640625" style="83" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" style="83" hidden="1" customWidth="1"/>
+    <col min="19" max="26" width="7.1640625" style="83" customWidth="1"/>
     <col min="27" max="27" width="10.83203125" style="83"/>
     <col min="28" max="31" width="10.83203125" style="79"/>
     <col min="32" max="42" width="10.83203125" style="80"/>
@@ -7177,7 +7194,7 @@
         <v>228</v>
       </c>
       <c r="J57" s="77" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="K57" s="77" t="s">
         <v>49</v>
@@ -7662,13 +7679,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
     <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -928,139 +928,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>朱甚3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱甚3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
+    <t>auto_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,6 +1264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1300,7 +1306,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="220">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1523,8 +1529,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,8 +1814,11 @@
     <xf numFmtId="49" fontId="7" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="220">
+  <cellStyles count="240">
     <cellStyle name="常规 7" xfId="123"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1900,6 +1929,16 @@
     <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2009,6 +2048,16 @@
     <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2341,7 +2390,7 @@
   <dimension ref="A1:AP62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:R1048576"/>
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2355,7 +2404,7 @@
     <col min="8" max="8" width="10.83203125" style="83" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" style="83" customWidth="1"/>
     <col min="10" max="10" width="7.83203125" style="83" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="87" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="83" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" style="83" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" style="83" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" style="87" hidden="1" customWidth="1"/>
@@ -2400,8 +2449,8 @@
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
+      <c r="K1" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -3243,10 +3292,10 @@
         <v>91</v>
       </c>
       <c r="J11" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K11" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L11" s="77" t="s">
         <v>21</v>
@@ -3327,10 +3376,10 @@
         <v>42</v>
       </c>
       <c r="J12" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K12" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L12" s="77" t="s">
         <v>21</v>
@@ -3410,10 +3459,10 @@
         <v>42</v>
       </c>
       <c r="J13" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K13" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L13" s="77" t="s">
         <v>21</v>
@@ -3493,10 +3542,10 @@
         <v>42</v>
       </c>
       <c r="J14" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K14" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L14" s="77" t="s">
         <v>21</v>
@@ -3576,10 +3625,10 @@
         <v>42</v>
       </c>
       <c r="J15" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K15" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K15" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L15" s="77" t="s">
         <v>21</v>
@@ -3659,10 +3708,10 @@
         <v>42</v>
       </c>
       <c r="J16" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K16" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L16" s="77" t="s">
         <v>21</v>
@@ -3742,10 +3791,10 @@
         <v>42</v>
       </c>
       <c r="J17" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K17" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L17" s="77" t="s">
         <v>21</v>
@@ -3825,10 +3874,10 @@
         <v>42</v>
       </c>
       <c r="J18" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L18" s="77" t="s">
         <v>21</v>
@@ -3909,10 +3958,10 @@
         <v>41</v>
       </c>
       <c r="J19" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="77" t="s">
         <v>252</v>
-      </c>
-      <c r="K19" s="77" t="s">
-        <v>49</v>
       </c>
       <c r="L19" s="77" t="s">
         <v>50</v>
@@ -4845,10 +4894,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F29" s="72" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29" s="72" t="s">
         <v>20</v>
@@ -4857,7 +4906,7 @@
         <v>40</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J29" s="72" t="s">
         <v>25</v>
@@ -4866,10 +4915,10 @@
         <v>25</v>
       </c>
       <c r="L29" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" s="72" t="s">
         <v>256</v>
-      </c>
-      <c r="M29" s="72" t="s">
-        <v>257</v>
       </c>
       <c r="N29" s="72" t="s">
         <v>26</v>
@@ -4929,7 +4978,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F30" s="76" t="s">
         <v>47</v>
@@ -4941,7 +4990,7 @@
         <v>39</v>
       </c>
       <c r="I30" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J30" s="76" t="s">
         <v>49</v>
@@ -4950,10 +4999,10 @@
         <v>49</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M30" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N30" s="76" t="s">
         <v>51</v>
@@ -5013,10 +5062,10 @@
         <v>34</v>
       </c>
       <c r="E31" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="76" t="s">
         <v>261</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>263</v>
       </c>
       <c r="G31" s="76" t="s">
         <v>39</v>
@@ -5025,7 +5074,7 @@
         <v>39</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>49</v>
@@ -5034,7 +5083,7 @@
         <v>49</v>
       </c>
       <c r="L31" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M31" s="76" t="s">
         <v>242</v>
@@ -5097,10 +5146,10 @@
         <v>34</v>
       </c>
       <c r="E32" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F32" s="72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G32" s="72" t="s">
         <v>20</v>
@@ -5109,7 +5158,7 @@
         <v>40</v>
       </c>
       <c r="I32" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J32" s="72" t="s">
         <v>25</v>
@@ -5118,10 +5167,10 @@
         <v>25</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M32" s="72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N32" s="72" t="s">
         <v>26</v>
@@ -5181,10 +5230,10 @@
         <v>34</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F33" s="72" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G33" s="72" t="s">
         <v>20</v>
@@ -5193,7 +5242,7 @@
         <v>40</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J33" s="72" t="s">
         <v>25</v>
@@ -5202,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M33" s="72" t="s">
         <v>239</v>
@@ -5279,11 +5328,11 @@
       <c r="I34" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J34" s="78" t="s">
+      <c r="J34" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="78" t="s">
         <v>252</v>
-      </c>
-      <c r="K34" s="78" t="s">
-        <v>25</v>
       </c>
       <c r="L34" s="78" t="s">
         <v>95</v>
@@ -5352,7 +5401,7 @@
         <v>238</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G35" s="78" t="s">
         <v>20</v>
@@ -5363,11 +5412,11 @@
       <c r="I35" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="78" t="s">
-        <v>253</v>
+      <c r="J35" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="K35" s="78" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="L35" s="78" t="s">
         <v>95</v>
@@ -5688,7 +5737,7 @@
         <v>95</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G39" s="78" t="s">
         <v>20</v>
@@ -5699,8 +5748,8 @@
       <c r="I39" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J39" s="78" t="s">
-        <v>25</v>
+      <c r="J39" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="K39" s="78" t="s">
         <v>25</v>
@@ -5759,7 +5808,7 @@
         <v>149</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>134</v>
@@ -5768,7 +5817,7 @@
         <v>246</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>245</v>
@@ -5782,8 +5831,8 @@
       <c r="I40" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J40" s="78" t="s">
-        <v>25</v>
+      <c r="J40" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="K40" s="78" t="s">
         <v>25</v>
@@ -5854,7 +5903,7 @@
         <v>238</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G41" s="78" t="s">
         <v>20</v>
@@ -5925,16 +5974,16 @@
         <v>149</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>136</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>243</v>
@@ -5949,10 +5998,10 @@
         <v>96</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="K42" s="78" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="L42" s="78" t="s">
         <v>95</v>
@@ -6008,7 +6057,7 @@
         <v>149</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C43" s="51" t="s">
         <v>137</v>
@@ -6017,10 +6066,10 @@
         <v>247</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G43" s="78" t="s">
         <v>20</v>
@@ -6032,10 +6081,10 @@
         <v>96</v>
       </c>
       <c r="J43" s="78" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="K43" s="78" t="s">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="L43" s="78" t="s">
         <v>95</v>
@@ -6100,10 +6149,10 @@
         <v>246</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G44" s="78" t="s">
         <v>39</v>
@@ -6114,11 +6163,11 @@
       <c r="I44" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="78" t="s">
-        <v>260</v>
+      <c r="J44" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="K44" s="78" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="L44" s="78" t="s">
         <v>95</v>
@@ -6183,7 +6232,7 @@
         <v>246</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F45" s="45" t="s">
         <v>245</v>
@@ -6197,11 +6246,11 @@
       <c r="I45" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="J45" s="78" t="s">
-        <v>260</v>
+      <c r="J45" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="K45" s="78" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="L45" s="78" t="s">
         <v>95</v>
@@ -6269,7 +6318,7 @@
         <v>46</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G46" s="77" t="s">
         <v>20</v>
@@ -6281,10 +6330,10 @@
         <v>42</v>
       </c>
       <c r="J46" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K46" s="77" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="K46" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L46" s="77" t="s">
         <v>21</v>
@@ -6364,10 +6413,10 @@
         <v>42</v>
       </c>
       <c r="J47" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K47" s="77" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="K47" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L47" s="78" t="s">
         <v>21</v>
@@ -6447,10 +6496,10 @@
         <v>42</v>
       </c>
       <c r="J48" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K48" s="77" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="K48" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L48" s="77" t="s">
         <v>21</v>
@@ -6518,7 +6567,7 @@
         <v>46</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G49" s="77" t="s">
         <v>20</v>
@@ -6529,11 +6578,11 @@
       <c r="I49" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="J49" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K49" s="77" t="s">
-        <v>25</v>
+      <c r="J49" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L49" s="77" t="s">
         <v>21</v>
@@ -6612,11 +6661,11 @@
       <c r="I50" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K50" s="77" t="s">
-        <v>25</v>
+      <c r="J50" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L50" s="77" t="s">
         <v>21</v>
@@ -6696,10 +6745,10 @@
         <v>42</v>
       </c>
       <c r="J51" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K51" s="77" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="K51" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L51" s="77" t="s">
         <v>21</v>
@@ -6767,7 +6816,7 @@
         <v>46</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G52" s="77" t="s">
         <v>20</v>
@@ -6779,10 +6828,10 @@
         <v>42</v>
       </c>
       <c r="J52" s="78" t="s">
-        <v>260</v>
-      </c>
-      <c r="K52" s="77" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="K52" s="78" t="s">
+        <v>250</v>
       </c>
       <c r="L52" s="77" t="s">
         <v>21</v>
@@ -6861,11 +6910,11 @@
       <c r="I53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="J53" s="77" t="s">
+      <c r="J53" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="77" t="s">
         <v>250</v>
-      </c>
-      <c r="K53" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L53" s="77" t="s">
         <v>21</v>
@@ -6944,11 +6993,11 @@
       <c r="I54" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="J54" s="77" t="s">
+      <c r="J54" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="77" t="s">
         <v>251</v>
-      </c>
-      <c r="K54" s="77" t="s">
-        <v>49</v>
       </c>
       <c r="L54" s="77" t="s">
         <v>50</v>
@@ -7016,7 +7065,7 @@
         <v>46</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G55" s="51" t="s">
         <v>20</v>
@@ -7087,7 +7136,7 @@
         <v>200</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="64">
         <v>54701863</v>
@@ -7111,10 +7160,10 @@
         <v>227</v>
       </c>
       <c r="J56" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K56" s="77" t="s">
         <v>250</v>
-      </c>
-      <c r="K56" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L56" s="77" t="s">
         <v>21</v>
@@ -7170,7 +7219,7 @@
         <v>201</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" s="68">
         <v>55014660</v>
@@ -7197,7 +7246,7 @@
         <v>286</v>
       </c>
       <c r="K57" s="77" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="L57" s="77" t="s">
         <v>50</v>
@@ -7265,7 +7314,7 @@
         <v>46</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G58" s="51" t="s">
         <v>20</v>
@@ -7336,7 +7385,7 @@
         <v>230</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C59" s="70">
         <v>54932403</v>
@@ -7360,10 +7409,10 @@
         <v>42</v>
       </c>
       <c r="J59" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K59" s="77" t="s">
         <v>250</v>
-      </c>
-      <c r="K59" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L59" s="77" t="s">
         <v>21</v>
@@ -7419,7 +7468,7 @@
         <v>230</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C60" s="70">
         <v>55049993</v>
@@ -7431,7 +7480,7 @@
         <v>46</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G60" s="77" t="s">
         <v>20</v>
@@ -7443,10 +7492,10 @@
         <v>42</v>
       </c>
       <c r="J60" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K60" s="77" t="s">
         <v>251</v>
-      </c>
-      <c r="K60" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L60" s="77" t="s">
         <v>21</v>
@@ -7499,16 +7548,16 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C61" s="62">
         <v>54857526</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E61" s="62" t="s">
         <v>227</v>
@@ -7526,10 +7575,10 @@
         <v>42</v>
       </c>
       <c r="J61" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K61" s="77" t="s">
         <v>250</v>
-      </c>
-      <c r="K61" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L61" s="77" t="s">
         <v>21</v>
@@ -7582,10 +7631,10 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C62" s="62">
         <v>55046375</v>
@@ -7597,7 +7646,7 @@
         <v>227</v>
       </c>
       <c r="F62" s="62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G62" s="77" t="s">
         <v>20</v>
@@ -7609,10 +7658,10 @@
         <v>42</v>
       </c>
       <c r="J62" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="K62" s="77" t="s">
         <v>251</v>
-      </c>
-      <c r="K62" s="77" t="s">
-        <v>25</v>
       </c>
       <c r="L62" s="77" t="s">
         <v>21</v>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="382">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,14 +883,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +935,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,19 +1225,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1689,7 +1669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="380">
+  <cellStyleXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1816,6 +1796,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2335,7 +2317,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="380">
+  <cellStyles count="382">
     <cellStyle name="常规 7" xfId="123"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2526,6 +2508,7 @@
     <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2715,6 +2698,7 @@
     <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3046,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3082,7 +3066,7 @@
         <v>154</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>33</v>
@@ -3109,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -3180,10 +3164,10 @@
         <v>196</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>213</v>
@@ -3209,8 +3193,8 @@
       <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>25</v>
+      <c r="L2" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
@@ -3249,10 +3233,10 @@
         <v>108</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA2" s="25" t="s">
         <v>110</v>
@@ -3266,10 +3250,10 @@
         <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>214</v>
@@ -3295,8 +3279,8 @@
       <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
+      <c r="L3" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>21</v>
@@ -3335,10 +3319,10 @@
         <v>108</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA3" s="25" t="s">
         <v>110</v>
@@ -3352,10 +3336,10 @@
         <v>141</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>215</v>
@@ -3381,8 +3365,8 @@
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
+      <c r="L4" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>21</v>
@@ -3421,10 +3405,10 @@
         <v>53</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA4" s="25" t="s">
         <v>109</v>
@@ -3438,10 +3422,10 @@
         <v>141</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>216</v>
@@ -3467,8 +3451,8 @@
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
+      <c r="L5" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>21</v>
@@ -3507,10 +3491,10 @@
         <v>53</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA5" s="25" t="s">
         <v>109</v>
@@ -3524,10 +3508,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>217</v>
@@ -3553,8 +3537,8 @@
       <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
+      <c r="L6" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>21</v>
@@ -3593,16 +3577,16 @@
         <v>53</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -3610,10 +3594,10 @@
         <v>141</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>218</v>
@@ -3639,8 +3623,8 @@
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
+      <c r="L7" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>21</v>
@@ -3688,7 +3672,7 @@
         <v>109</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -3696,10 +3680,10 @@
         <v>141</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>219</v>
@@ -3725,8 +3709,8 @@
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
+      <c r="L8" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>21</v>
@@ -3774,7 +3758,7 @@
         <v>109</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -3782,10 +3766,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>220</v>
@@ -3811,8 +3795,8 @@
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>25</v>
+      <c r="L9" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -3860,7 +3844,7 @@
         <v>109</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3868,10 +3852,10 @@
         <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>221</v>
@@ -3897,8 +3881,8 @@
       <c r="K10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>49</v>
+      <c r="L10" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>50</v>
@@ -3946,7 +3930,7 @@
         <v>109</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -3954,10 +3938,10 @@
         <v>141</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>71</v>
@@ -3981,10 +3965,10 @@
         <v>91</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M11" s="67" t="s">
         <v>21</v>
@@ -4026,7 +4010,7 @@
         <v>26</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AA11" s="39" t="s">
         <v>119</v>
@@ -4041,10 +4025,10 @@
         <v>197</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>87</v>
@@ -4068,10 +4052,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M12" s="67" t="s">
         <v>21</v>
@@ -4113,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AA12" s="39" t="s">
         <v>119</v>
@@ -4127,10 +4111,10 @@
         <v>146</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>88</v>
@@ -4154,10 +4138,10 @@
         <v>42</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M13" s="67" t="s">
         <v>21</v>
@@ -4199,7 +4183,7 @@
         <v>26</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AA13" s="39" t="s">
         <v>43</v>
@@ -4213,10 +4197,10 @@
         <v>146</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D14" s="37" t="s">
         <v>89</v>
@@ -4240,10 +4224,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M14" s="67" t="s">
         <v>21</v>
@@ -4285,7 +4269,7 @@
         <v>26</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AA14" s="39" t="s">
         <v>43</v>
@@ -4299,10 +4283,10 @@
         <v>146</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>90</v>
@@ -4326,10 +4310,10 @@
         <v>42</v>
       </c>
       <c r="K15" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M15" s="67" t="s">
         <v>21</v>
@@ -4368,7 +4352,7 @@
         <v>109</v>
       </c>
       <c r="Y15" s="39" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>31</v>
@@ -4385,10 +4369,10 @@
         <v>142</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>72</v>
@@ -4412,10 +4396,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M16" s="67" t="s">
         <v>21</v>
@@ -4457,7 +4441,7 @@
         <v>26</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA16" s="39" t="s">
         <v>43</v>
@@ -4471,10 +4455,10 @@
         <v>142</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>73</v>
@@ -4498,10 +4482,10 @@
         <v>42</v>
       </c>
       <c r="K17" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M17" s="67" t="s">
         <v>21</v>
@@ -4543,7 +4527,7 @@
         <v>26</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>43</v>
@@ -4557,10 +4541,10 @@
         <v>144</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>74</v>
@@ -4584,10 +4568,10 @@
         <v>42</v>
       </c>
       <c r="K18" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M18" s="67" t="s">
         <v>21</v>
@@ -4629,7 +4613,7 @@
         <v>26</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA18" s="39" t="s">
         <v>43</v>
@@ -4644,10 +4628,10 @@
         <v>144</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D19" s="37" t="s">
         <v>75</v>
@@ -4671,10 +4655,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M19" s="67" t="s">
         <v>50</v>
@@ -4716,7 +4700,7 @@
         <v>26</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA19" s="39" t="s">
         <v>43</v>
@@ -4730,10 +4714,10 @@
         <v>144</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>76</v>
@@ -4759,8 +4743,8 @@
       <c r="K20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="34" t="s">
-        <v>25</v>
+      <c r="L20" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>98</v>
@@ -4781,10 +4765,10 @@
         <v>25</v>
       </c>
       <c r="S20" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="T20" s="81" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U20" s="82" t="s">
         <v>106</v>
@@ -4793,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="X20" s="35" t="s">
         <v>108</v>
@@ -4831,10 +4815,10 @@
         <v>144</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>77</v>
@@ -4860,8 +4844,8 @@
       <c r="K21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="34" t="s">
-        <v>25</v>
+      <c r="L21" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M21" s="34" t="s">
         <v>98</v>
@@ -4882,10 +4866,10 @@
         <v>25</v>
       </c>
       <c r="S21" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="T21" s="81" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="U21" s="82" t="s">
         <v>106</v>
@@ -4894,7 +4878,7 @@
         <v>26</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="X21" s="35" t="s">
         <v>108</v>
@@ -4932,10 +4916,10 @@
         <v>144</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>78</v>
@@ -4961,8 +4945,8 @@
       <c r="K22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="34" t="s">
-        <v>25</v>
+      <c r="L22" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>98</v>
@@ -4983,10 +4967,10 @@
         <v>25</v>
       </c>
       <c r="S22" s="81" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="T22" s="81" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="U22" s="82" t="s">
         <v>105</v>
@@ -4995,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>53</v>
@@ -5033,10 +5017,10 @@
         <v>144</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>79</v>
@@ -5062,8 +5046,8 @@
       <c r="K23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="34" t="s">
-        <v>25</v>
+      <c r="L23" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M23" s="34" t="s">
         <v>98</v>
@@ -5096,7 +5080,7 @@
         <v>26</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="X23" s="35" t="s">
         <v>53</v>
@@ -5105,13 +5089,13 @@
         <v>111</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB23" s="33" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AC23" s="69"/>
       <c r="AD23" s="70"/>
@@ -5134,10 +5118,10 @@
         <v>144</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>80</v>
@@ -5163,8 +5147,8 @@
       <c r="K24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="34" t="s">
-        <v>25</v>
+      <c r="L24" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>98</v>
@@ -5197,7 +5181,7 @@
         <v>26</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="X24" s="35" t="s">
         <v>53</v>
@@ -5206,13 +5190,13 @@
         <v>111</v>
       </c>
       <c r="Z24" s="36" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB24" s="33" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AC24" s="69"/>
       <c r="AD24" s="70"/>
@@ -5235,10 +5219,10 @@
         <v>144</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>81</v>
@@ -5264,8 +5248,8 @@
       <c r="K25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="34" t="s">
-        <v>25</v>
+      <c r="L25" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M25" s="34" t="s">
         <v>98</v>
@@ -5298,7 +5282,7 @@
         <v>26</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="X25" s="35" t="s">
         <v>53</v>
@@ -5307,13 +5291,13 @@
         <v>111</v>
       </c>
       <c r="Z25" s="36" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AA25" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB25" s="33" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AC25" s="69"/>
       <c r="AD25" s="70"/>
@@ -5336,10 +5320,10 @@
         <v>144</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>82</v>
@@ -5365,8 +5349,8 @@
       <c r="K26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="34" t="s">
-        <v>25</v>
+      <c r="L26" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>98</v>
@@ -5408,13 +5392,13 @@
         <v>111</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AA26" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB26" s="33" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AC26" s="69"/>
       <c r="AD26" s="70"/>
@@ -5437,10 +5421,10 @@
         <v>144</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>83</v>
@@ -5466,8 +5450,8 @@
       <c r="K27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="34" t="s">
-        <v>25</v>
+      <c r="L27" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>98</v>
@@ -5509,13 +5493,13 @@
         <v>112</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AA27" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AC27" s="69"/>
       <c r="AD27" s="70"/>
@@ -5538,10 +5522,10 @@
         <v>144</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>84</v>
@@ -5567,8 +5551,8 @@
       <c r="K28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="34" t="s">
-        <v>49</v>
+      <c r="L28" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M28" s="34" t="s">
         <v>98</v>
@@ -5610,13 +5594,13 @@
         <v>113</v>
       </c>
       <c r="Z28" s="36" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AA28" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AD28" s="70"/>
     </row>
@@ -5625,10 +5609,10 @@
         <v>144</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D29" s="63" t="s">
         <v>200</v>
@@ -5637,10 +5621,10 @@
         <v>34</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H29" s="63" t="s">
         <v>20</v>
@@ -5649,19 +5633,19 @@
         <v>40</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="63" t="s">
-        <v>25</v>
+      <c r="L29" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M29" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N29" s="63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O29" s="63" t="s">
         <v>26</v>
@@ -5712,10 +5696,10 @@
         <v>144</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D30" s="63" t="s">
         <v>201</v>
@@ -5724,7 +5708,7 @@
         <v>34</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>47</v>
@@ -5736,19 +5720,19 @@
         <v>39</v>
       </c>
       <c r="J30" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="66" t="s">
-        <v>49</v>
+      <c r="L30" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M30" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="N30" s="66" t="s">
         <v>243</v>
-      </c>
-      <c r="N30" s="66" t="s">
-        <v>245</v>
       </c>
       <c r="O30" s="66" t="s">
         <v>51</v>
@@ -5799,10 +5783,10 @@
         <v>144</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>202</v>
@@ -5811,10 +5795,10 @@
         <v>34</v>
       </c>
       <c r="F31" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="66" t="s">
         <v>247</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>249</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>39</v>
@@ -5823,16 +5807,16 @@
         <v>39</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="66" t="s">
-        <v>49</v>
+      <c r="L31" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M31" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N31" s="66" t="s">
         <v>233</v>
@@ -5886,10 +5870,10 @@
         <v>144</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>203</v>
@@ -5898,10 +5882,10 @@
         <v>34</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>20</v>
@@ -5910,19 +5894,19 @@
         <v>40</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K32" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="63" t="s">
-        <v>25</v>
+      <c r="L32" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M32" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N32" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O32" s="63" t="s">
         <v>26</v>
@@ -5973,10 +5957,10 @@
         <v>144</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D33" s="63" t="s">
         <v>204</v>
@@ -5985,10 +5969,10 @@
         <v>34</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>20</v>
@@ -5997,16 +5981,16 @@
         <v>40</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K33" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="63" t="s">
-        <v>25</v>
+      <c r="L33" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M33" s="63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N33" s="63" t="s">
         <v>231</v>
@@ -6060,10 +6044,10 @@
         <v>144</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>85</v>
@@ -6072,7 +6056,7 @@
         <v>228</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>235</v>
@@ -6089,8 +6073,8 @@
       <c r="K34" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="68" t="s">
-        <v>242</v>
+      <c r="L34" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M34" s="68" t="s">
         <v>95</v>
@@ -6117,28 +6101,28 @@
         <v>20</v>
       </c>
       <c r="U34" s="87" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>125</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AA34" s="15" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AD34" s="70"/>
     </row>
@@ -6147,13 +6131,13 @@
         <v>142</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>229</v>
@@ -6162,7 +6146,7 @@
         <v>95</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H35" s="68" t="s">
         <v>20</v>
@@ -6176,7 +6160,7 @@
       <c r="K35" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M35" s="68" t="s">
@@ -6204,28 +6188,28 @@
         <v>20</v>
       </c>
       <c r="U35" s="84" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="W35" s="45" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X35" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y35" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z35" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA35" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB35" s="44" t="s">
         <v>367</v>
-      </c>
-      <c r="Y35" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z35" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA35" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB35" s="44" t="s">
-        <v>372</v>
       </c>
       <c r="AD35" s="70"/>
     </row>
@@ -6237,10 +6221,10 @@
         <v>227</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E36" s="44" t="s">
         <v>236</v>
@@ -6249,7 +6233,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H36" s="68" t="s">
         <v>20</v>
@@ -6263,8 +6247,8 @@
       <c r="K36" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="68" t="s">
-        <v>25</v>
+      <c r="L36" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M36" s="68" t="s">
         <v>95</v>
@@ -6297,22 +6281,22 @@
         <v>26</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Y36" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z36" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA36" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB36" s="44" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AD36" s="70"/>
     </row>
@@ -6321,13 +6305,13 @@
         <v>147</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E37" s="44" t="s">
         <v>236</v>
@@ -6336,7 +6320,7 @@
         <v>95</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H37" s="68" t="s">
         <v>20</v>
@@ -6350,8 +6334,8 @@
       <c r="K37" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="68" t="s">
-        <v>25</v>
+      <c r="L37" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M37" s="68" t="s">
         <v>95</v>
@@ -6387,19 +6371,19 @@
         <v>126</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z37" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA37" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB37" s="44" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AD37" s="70"/>
     </row>
@@ -6408,13 +6392,13 @@
         <v>148</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E38" s="44" t="s">
         <v>236</v>
@@ -6423,7 +6407,7 @@
         <v>95</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H38" s="68" t="s">
         <v>20</v>
@@ -6437,8 +6421,8 @@
       <c r="K38" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="68" t="s">
-        <v>25</v>
+      <c r="L38" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M38" s="68" t="s">
         <v>95</v>
@@ -6465,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="U38" s="84" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="V38" s="45" t="s">
         <v>26</v>
@@ -6474,19 +6458,19 @@
         <v>126</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Y38" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA38" s="46" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AB38" s="44" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AD38" s="70"/>
     </row>
@@ -6495,13 +6479,13 @@
         <v>148</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E39" s="44" t="s">
         <v>236</v>
@@ -6510,7 +6494,7 @@
         <v>95</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H39" s="68" t="s">
         <v>20</v>
@@ -6524,8 +6508,8 @@
       <c r="K39" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="68" t="s">
-        <v>25</v>
+      <c r="L39" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M39" s="68" t="s">
         <v>95</v>
@@ -6552,7 +6536,7 @@
         <v>20</v>
       </c>
       <c r="U39" s="84" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="V39" s="45" t="s">
         <v>26</v>
@@ -6561,19 +6545,19 @@
         <v>126</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Y39" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z39" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA39" s="46" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AB39" s="44" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -6581,10 +6565,10 @@
         <v>148</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>133</v>
@@ -6593,10 +6577,10 @@
         <v>236</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H40" s="68" t="s">
         <v>20</v>
@@ -6610,8 +6594,8 @@
       <c r="K40" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="68" t="s">
-        <v>25</v>
+      <c r="L40" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M40" s="68" t="s">
         <v>95</v>
@@ -6647,19 +6631,19 @@
         <v>126</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z40" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA40" s="46" t="s">
         <v>109</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -6667,10 +6651,10 @@
         <v>148</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D41" s="56" t="s">
         <v>208</v>
@@ -6696,7 +6680,7 @@
       <c r="K41" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M41" s="67" t="s">
@@ -6730,22 +6714,22 @@
         <v>26</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X41" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -6753,10 +6737,10 @@
         <v>148</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D42" s="56" t="s">
         <v>209</v>
@@ -6765,10 +6749,10 @@
         <v>236</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H42" s="67" t="s">
         <v>20</v>
@@ -6782,7 +6766,7 @@
       <c r="K42" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M42" s="67" t="s">
@@ -6813,25 +6797,25 @@
         <v>118</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X42" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y42" s="43" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Z42" s="43" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AA42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -6842,7 +6826,7 @@
         <v>157</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D43" s="58" t="s">
         <v>210</v>
@@ -6896,28 +6880,28 @@
         <v>20</v>
       </c>
       <c r="U43" s="84" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W43" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Y43" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z43" s="46" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AA43" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB43" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -6925,10 +6909,10 @@
         <v>148</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D44" s="58" t="s">
         <v>211</v>
@@ -6937,10 +6921,10 @@
         <v>237</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H44" s="67" t="s">
         <v>39</v>
@@ -6955,7 +6939,7 @@
         <v>49</v>
       </c>
       <c r="L44" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M44" s="67" t="s">
         <v>50</v>
@@ -6982,28 +6966,28 @@
         <v>20</v>
       </c>
       <c r="U44" s="84" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W44" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Y44" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z44" s="46" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AA44" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB44" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -7011,10 +6995,10 @@
         <v>148</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D45" s="58" t="s">
         <v>212</v>
@@ -7026,7 +7010,7 @@
         <v>46</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>20</v>
@@ -7040,8 +7024,8 @@
       <c r="K45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="44" t="s">
-        <v>25</v>
+      <c r="L45" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M45" s="44" t="s">
         <v>21</v>
@@ -7068,28 +7052,28 @@
         <v>20</v>
       </c>
       <c r="U45" s="84" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W45" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X45" s="45" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y45" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z45" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA45" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB45" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -7097,10 +7081,10 @@
         <v>148</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D46" s="55">
         <v>54701863</v>
@@ -7124,7 +7108,7 @@
         <v>223</v>
       </c>
       <c r="K46" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L46" s="67" t="s">
         <v>240</v>
@@ -7154,28 +7138,28 @@
         <v>20</v>
       </c>
       <c r="U46" s="84" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W46" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X46" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Y46" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z46" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA46" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB46" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -7183,10 +7167,10 @@
         <v>148</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D47" s="59">
         <v>55014660</v>
@@ -7195,10 +7179,10 @@
         <v>239</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H47" s="67" t="s">
         <v>39</v>
@@ -7210,10 +7194,10 @@
         <v>224</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L47" s="67" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="M47" s="67" t="s">
         <v>50</v>
@@ -7240,28 +7224,28 @@
         <v>20</v>
       </c>
       <c r="U47" s="84" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="V47" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W47" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X47" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Y47" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z47" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA47" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB47" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -7269,10 +7253,10 @@
         <v>148</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D48" s="61">
         <v>54858186</v>
@@ -7281,10 +7265,10 @@
         <v>238</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H48" s="67" t="s">
         <v>20</v>
@@ -7299,7 +7283,7 @@
         <v>25</v>
       </c>
       <c r="L48" s="67" t="s">
-        <v>25</v>
+        <v>240</v>
       </c>
       <c r="M48" s="67" t="s">
         <v>21</v>
@@ -7326,28 +7310,28 @@
         <v>20</v>
       </c>
       <c r="U48" s="84" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W48" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X48" s="45" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y48" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z48" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA48" s="46" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AB48" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -7355,10 +7339,10 @@
         <v>148</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D49" s="61">
         <v>54932403</v>
@@ -7370,28 +7354,28 @@
         <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="H49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>331</v>
-      </c>
       <c r="K49" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="L49" s="44" t="s">
-        <v>333</v>
+        <v>329</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M49" s="44" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N49" s="44" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O49" s="44" t="s">
         <v>26</v>
@@ -7412,28 +7396,28 @@
         <v>20</v>
       </c>
       <c r="U49" s="84" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V49" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W49" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X49" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y49" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z49" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA49" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB49" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -7441,10 +7425,10 @@
         <v>198</v>
       </c>
       <c r="B50" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="D50" s="61">
         <v>55049993</v>
@@ -7456,28 +7440,28 @@
         <v>46</v>
       </c>
       <c r="G50" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="J50" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="K50" s="44" t="s">
+      <c r="L50" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M50" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="L50" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="M50" s="44" t="s">
-        <v>337</v>
-      </c>
       <c r="N50" s="44" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O50" s="44" t="s">
         <v>26</v>
@@ -7498,28 +7482,28 @@
         <v>20</v>
       </c>
       <c r="U50" s="84" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V50" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W50" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X50" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z50" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA50" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB50" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -7527,43 +7511,43 @@
         <v>199</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D51" s="53">
         <v>54857526</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L51" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="N51" s="44" t="s">
         <v>335</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="J51" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="N51" s="44" t="s">
-        <v>340</v>
       </c>
       <c r="O51" s="44" t="s">
         <v>26</v>
@@ -7584,28 +7568,28 @@
         <v>20</v>
       </c>
       <c r="U51" s="84" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V51" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W51" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X51" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z51" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA51" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB51" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -7613,10 +7597,10 @@
         <v>226</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D52" s="53">
         <v>55046375</v>
@@ -7625,31 +7609,31 @@
         <v>222</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G52" s="53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J52" s="44" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K52" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M52" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="L52" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>337</v>
-      </c>
       <c r="N52" s="44" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O52" s="44" t="s">
         <v>26</v>
@@ -7670,28 +7654,28 @@
         <v>20</v>
       </c>
       <c r="U52" s="84" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V52" s="45" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W52" s="45" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X52" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Y52" s="46" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AA52" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB52" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -7699,10 +7683,10 @@
         <v>225</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>134</v>
@@ -7711,10 +7695,10 @@
         <v>236</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H53" s="68" t="s">
         <v>20</v>
@@ -7728,8 +7712,8 @@
       <c r="K53" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="68" t="s">
-        <v>25</v>
+      <c r="L53" s="67" t="s">
+        <v>240</v>
       </c>
       <c r="M53" s="68" t="s">
         <v>95</v>
@@ -7756,28 +7740,28 @@
         <v>20</v>
       </c>
       <c r="U53" s="86" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V53" s="42" t="s">
         <v>26</v>
       </c>
       <c r="W53" s="42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X53" s="42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Z53" s="43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AA53" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AB53" s="41" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7785,10 +7769,10 @@
         <v>225</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D54" s="56" t="s">
         <v>205</v>
@@ -7800,7 +7784,7 @@
         <v>46</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H54" s="67" t="s">
         <v>20</v>
@@ -7814,7 +7798,7 @@
       <c r="K54" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="68" t="s">
+      <c r="L54" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M54" s="67" t="s">
@@ -7839,42 +7823,42 @@
         <v>20</v>
       </c>
       <c r="T54" s="86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="U54" s="86" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V54" s="42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W54" s="42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X54" s="42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y54" s="43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z54" s="43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AA54" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AB54" s="41" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D55" s="56" t="s">
         <v>206</v>
@@ -7886,7 +7870,7 @@
         <v>46</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H55" s="67" t="s">
         <v>20</v>
@@ -7900,7 +7884,7 @@
       <c r="K55" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L55" s="68" t="s">
+      <c r="L55" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M55" s="67" t="s">
@@ -7922,45 +7906,45 @@
         <v>25</v>
       </c>
       <c r="S55" s="86" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="T55" s="86" t="s">
         <v>20</v>
       </c>
       <c r="U55" s="86" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="V55" s="42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="W55" s="42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X55" s="42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y55" s="43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Z55" s="43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AB55" s="41" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>207</v>
@@ -7972,7 +7956,7 @@
         <v>46</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H56" s="67" t="s">
         <v>20</v>
@@ -7986,7 +7970,7 @@
       <c r="K56" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="68" t="s">
+      <c r="L56" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M56" s="67" t="s">
@@ -8008,34 +7992,34 @@
         <v>25</v>
       </c>
       <c r="S56" s="86" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="T56" s="86" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="U56" s="86" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="V56" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="W56" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="X56" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y56" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z56" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA56" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="W56" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="X56" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y56" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z56" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA56" s="43" t="s">
-        <v>347</v>
-      </c>
       <c r="AB56" s="41" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -1189,15 +1189,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,27 +1237,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1233,38 +1284,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>54.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>54.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,163 +1360,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>56.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>53.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3030,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L56"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3233,10 +3233,10 @@
         <v>108</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA2" s="25" t="s">
         <v>110</v>
@@ -3319,10 +3319,10 @@
         <v>108</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA3" s="25" t="s">
         <v>110</v>
@@ -3405,10 +3405,10 @@
         <v>53</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA4" s="25" t="s">
         <v>109</v>
@@ -3491,10 +3491,10 @@
         <v>53</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA5" s="25" t="s">
         <v>109</v>
@@ -3577,16 +3577,16 @@
         <v>53</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -3672,7 +3672,7 @@
         <v>109</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -3758,7 +3758,7 @@
         <v>109</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -3844,7 +3844,7 @@
         <v>109</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3930,7 +3930,7 @@
         <v>109</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -4010,7 +4010,7 @@
         <v>26</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA11" s="39" t="s">
         <v>119</v>
@@ -4097,7 +4097,7 @@
         <v>26</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA12" s="39" t="s">
         <v>119</v>
@@ -4183,7 +4183,7 @@
         <v>26</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA13" s="39" t="s">
         <v>43</v>
@@ -4269,7 +4269,7 @@
         <v>26</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA14" s="39" t="s">
         <v>43</v>
@@ -4352,7 +4352,7 @@
         <v>109</v>
       </c>
       <c r="Y15" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>31</v>
@@ -4441,7 +4441,7 @@
         <v>26</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA16" s="39" t="s">
         <v>43</v>
@@ -4527,7 +4527,7 @@
         <v>26</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>43</v>
@@ -4613,7 +4613,7 @@
         <v>26</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA18" s="39" t="s">
         <v>43</v>
@@ -4700,7 +4700,7 @@
         <v>26</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA19" s="39" t="s">
         <v>43</v>
@@ -4765,10 +4765,10 @@
         <v>25</v>
       </c>
       <c r="S20" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T20" s="81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U20" s="82" t="s">
         <v>106</v>
@@ -4777,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X20" s="35" t="s">
         <v>108</v>
@@ -4866,10 +4866,10 @@
         <v>25</v>
       </c>
       <c r="S21" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T21" s="81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U21" s="82" t="s">
         <v>106</v>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X21" s="35" t="s">
         <v>108</v>
@@ -4967,10 +4967,10 @@
         <v>25</v>
       </c>
       <c r="S22" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T22" s="81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U22" s="82" t="s">
         <v>105</v>
@@ -4979,7 +4979,7 @@
         <v>26</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>53</v>
@@ -5080,7 +5080,7 @@
         <v>26</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X23" s="35" t="s">
         <v>53</v>
@@ -5089,13 +5089,13 @@
         <v>111</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB23" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC23" s="69"/>
       <c r="AD23" s="70"/>
@@ -5181,7 +5181,7 @@
         <v>26</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X24" s="35" t="s">
         <v>53</v>
@@ -5190,13 +5190,13 @@
         <v>111</v>
       </c>
       <c r="Z24" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB24" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC24" s="69"/>
       <c r="AD24" s="70"/>
@@ -5282,7 +5282,7 @@
         <v>26</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X25" s="35" t="s">
         <v>53</v>
@@ -5291,13 +5291,13 @@
         <v>111</v>
       </c>
       <c r="Z25" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA25" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB25" s="33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC25" s="69"/>
       <c r="AD25" s="70"/>
@@ -5392,13 +5392,13 @@
         <v>111</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA26" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB26" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC26" s="69"/>
       <c r="AD26" s="70"/>
@@ -5493,13 +5493,13 @@
         <v>112</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA27" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC27" s="69"/>
       <c r="AD27" s="70"/>
@@ -5594,13 +5594,13 @@
         <v>113</v>
       </c>
       <c r="Z28" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA28" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD28" s="70"/>
     </row>
@@ -6101,28 +6101,28 @@
         <v>20</v>
       </c>
       <c r="U34" s="87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>125</v>
       </c>
       <c r="X34" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA34" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="Y34" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AB34" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="AD34" s="70"/>
     </row>
@@ -6188,28 +6188,28 @@
         <v>20</v>
       </c>
       <c r="U35" s="84" t="s">
+        <v>360</v>
+      </c>
+      <c r="V35" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="W35" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="V35" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="W35" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="X35" s="45" t="s">
-        <v>362</v>
-      </c>
       <c r="Y35" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z35" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA35" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AB35" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD35" s="70"/>
     </row>
@@ -6281,22 +6281,22 @@
         <v>26</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y36" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z36" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA36" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB36" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD36" s="70"/>
     </row>
@@ -6371,19 +6371,19 @@
         <v>126</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z37" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA37" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB37" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AD37" s="70"/>
     </row>
@@ -6449,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="U38" s="84" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V38" s="45" t="s">
         <v>26</v>
@@ -6458,19 +6458,19 @@
         <v>126</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y38" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA38" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB38" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD38" s="70"/>
     </row>
@@ -6536,7 +6536,7 @@
         <v>20</v>
       </c>
       <c r="U39" s="84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V39" s="45" t="s">
         <v>26</v>
@@ -6545,19 +6545,19 @@
         <v>126</v>
       </c>
       <c r="X39" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y39" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z39" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA39" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="Y39" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z39" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA39" s="46" t="s">
-        <v>366</v>
-      </c>
       <c r="AB39" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -6577,7 +6577,7 @@
         <v>236</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G40" s="44" t="s">
         <v>295</v>
@@ -6631,19 +6631,19 @@
         <v>126</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z40" s="46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA40" s="46" t="s">
         <v>109</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -6714,22 +6714,22 @@
         <v>26</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X41" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -6797,25 +6797,25 @@
         <v>118</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X42" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y42" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z42" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -6880,28 +6880,28 @@
         <v>20</v>
       </c>
       <c r="U43" s="84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W43" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X43" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y43" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z43" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA43" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB43" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X43" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y43" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z43" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA43" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB43" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -6921,7 +6921,7 @@
         <v>237</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="G44" s="44" t="s">
         <v>309</v>
@@ -6966,28 +6966,28 @@
         <v>20</v>
       </c>
       <c r="U44" s="84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W44" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X44" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z44" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA44" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB44" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X44" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y44" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z44" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA44" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB44" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -7052,28 +7052,28 @@
         <v>20</v>
       </c>
       <c r="U45" s="84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W45" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X45" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z45" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA45" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB45" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X45" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y45" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z45" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA45" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB45" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -7138,28 +7138,28 @@
         <v>20</v>
       </c>
       <c r="U46" s="84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W46" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X46" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z46" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA46" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB46" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X46" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y46" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z46" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA46" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB46" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -7179,10 +7179,10 @@
         <v>239</v>
       </c>
       <c r="F47" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="44" t="s">
         <v>322</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>323</v>
       </c>
       <c r="H47" s="67" t="s">
         <v>39</v>
@@ -7224,28 +7224,28 @@
         <v>20</v>
       </c>
       <c r="U47" s="84" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V47" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W47" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y47" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z47" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA47" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB47" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X47" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y47" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z47" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA47" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB47" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -7268,7 +7268,7 @@
         <v>308</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H48" s="67" t="s">
         <v>20</v>
@@ -7310,28 +7310,28 @@
         <v>20</v>
       </c>
       <c r="U48" s="84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W48" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X48" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y48" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z48" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA48" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB48" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="X48" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y48" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z48" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA48" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB48" s="45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -7354,7 +7354,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>20</v>
@@ -7363,19 +7363,19 @@
         <v>20</v>
       </c>
       <c r="J49" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="44" t="s">
         <v>328</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>329</v>
       </c>
       <c r="L49" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M49" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N49" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O49" s="44" t="s">
         <v>26</v>
@@ -7396,28 +7396,28 @@
         <v>20</v>
       </c>
       <c r="U49" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="V49" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="W49" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X49" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="V49" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="W49" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="X49" s="45" t="s">
-        <v>373</v>
-      </c>
       <c r="Y49" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z49" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA49" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB49" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -7440,28 +7440,28 @@
         <v>46</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J50" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" s="44" t="s">
         <v>328</v>
-      </c>
-      <c r="K50" s="44" t="s">
-        <v>329</v>
       </c>
       <c r="L50" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M50" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N50" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O50" s="44" t="s">
         <v>26</v>
@@ -7482,28 +7482,28 @@
         <v>20</v>
       </c>
       <c r="U50" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="V50" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="W50" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X50" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="V50" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="W50" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="X50" s="45" t="s">
-        <v>373</v>
-      </c>
       <c r="Y50" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z50" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA50" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB50" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -7529,25 +7529,25 @@
         <v>48</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J51" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="K51" s="44" t="s">
         <v>328</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>329</v>
       </c>
       <c r="L51" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M51" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N51" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O51" s="44" t="s">
         <v>26</v>
@@ -7568,28 +7568,28 @@
         <v>20</v>
       </c>
       <c r="U51" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="V51" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="W51" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X51" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="V51" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="W51" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="X51" s="45" t="s">
-        <v>373</v>
-      </c>
       <c r="Y51" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z51" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA51" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB51" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -7612,28 +7612,28 @@
         <v>290</v>
       </c>
       <c r="G52" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="J52" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="H52" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="J52" s="44" t="s">
+      <c r="K52" s="44" t="s">
         <v>328</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>329</v>
       </c>
       <c r="L52" s="67" t="s">
         <v>240</v>
       </c>
       <c r="M52" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="N52" s="44" t="s">
         <v>332</v>
-      </c>
-      <c r="N52" s="44" t="s">
-        <v>333</v>
       </c>
       <c r="O52" s="44" t="s">
         <v>26</v>
@@ -7654,28 +7654,28 @@
         <v>20</v>
       </c>
       <c r="U52" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="V52" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="W52" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X52" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="V52" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="W52" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="X52" s="45" t="s">
-        <v>373</v>
-      </c>
       <c r="Y52" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA52" s="46" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AB52" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -7740,28 +7740,28 @@
         <v>20</v>
       </c>
       <c r="U53" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="V53" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="W53" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="V53" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="W53" s="42" t="s">
-        <v>344</v>
-      </c>
       <c r="X53" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Z53" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA53" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB53" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7823,31 +7823,31 @@
         <v>20</v>
       </c>
       <c r="T54" s="86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U54" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="W54" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="V54" s="42" t="s">
+      <c r="X54" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y54" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z54" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA54" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="W54" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="X54" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y54" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z54" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA54" s="43" t="s">
-        <v>341</v>
-      </c>
       <c r="AB54" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -7906,34 +7906,34 @@
         <v>25</v>
       </c>
       <c r="S55" s="86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T55" s="86" t="s">
         <v>20</v>
       </c>
       <c r="U55" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="V55" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="W55" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="V55" s="42" t="s">
+      <c r="X55" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y55" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z55" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA55" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="W55" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="X55" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y55" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z55" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA55" s="43" t="s">
-        <v>341</v>
-      </c>
       <c r="AB55" s="41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7992,34 +7992,34 @@
         <v>25</v>
       </c>
       <c r="S56" s="86" t="s">
+        <v>345</v>
+      </c>
+      <c r="T56" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="U56" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="V56" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="W56" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="X56" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y56" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="T56" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="U56" s="86" t="s">
-        <v>372</v>
-      </c>
-      <c r="V56" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="W56" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="X56" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y56" s="43" t="s">
-        <v>347</v>
-      </c>
       <c r="Z56" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA56" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB56" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="390">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,19 +828,631 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周寅杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆跃宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖承剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜贤波</t>
+  </si>
+  <si>
+    <t>刘旭光</t>
+  </si>
+  <si>
+    <t>孙亚龙</t>
+  </si>
+  <si>
+    <t>陈树</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>赵建升</t>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>顾玉江</t>
+  </si>
+  <si>
+    <t>李念鸿</t>
+  </si>
+  <si>
+    <t>雷笑笑</t>
+  </si>
+  <si>
+    <t>陈艺鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦罗佳</t>
+  </si>
+  <si>
+    <t>陈宾</t>
+  </si>
+  <si>
+    <t>吴迪</t>
+  </si>
+  <si>
+    <t>朱银婷</t>
+  </si>
+  <si>
+    <t>谢寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡鑫玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶天颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54769349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54991848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55013170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54854669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54912629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杨星1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
+    <t>杨星2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -848,587 +1460,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秀文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周寅杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆跃宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴佳乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖承剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜贤波</t>
-  </si>
-  <si>
-    <t>刘旭光</t>
-  </si>
-  <si>
-    <t>孙亚龙</t>
-  </si>
-  <si>
-    <t>陈树</t>
-  </si>
-  <si>
-    <t>张博</t>
-  </si>
-  <si>
-    <t>赵建升</t>
-  </si>
-  <si>
-    <t>陈斌</t>
-  </si>
-  <si>
-    <t>顾玉江</t>
-  </si>
-  <si>
-    <t>李念鸿</t>
-  </si>
-  <si>
-    <t>雷笑笑</t>
-  </si>
-  <si>
-    <t>陈艺鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦罗佳</t>
-  </si>
-  <si>
-    <t>陈宾</t>
-  </si>
-  <si>
-    <t>吴迪</t>
-  </si>
-  <si>
-    <t>朱银婷</t>
-  </si>
-  <si>
-    <t>谢寅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡鑫玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶天颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王小艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54769349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54991848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55013170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54854669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54912629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="382">
+  <cellStyleXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1796,6 +1828,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2317,7 +2363,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="382">
+  <cellStyles count="396">
     <cellStyle name="常规 7" xfId="123"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2509,6 +2555,13 @@
     <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2699,6 +2752,13 @@
     <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3030,14 +3090,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="76"/>
-    <col min="4" max="4" width="13.5" style="76" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="76"/>
+    <col min="3" max="3" width="13.5" style="76" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="76"/>
     <col min="5" max="5" width="7.1640625" style="73" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="73" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="73" customWidth="1"/>
@@ -3065,11 +3126,11 @@
       <c r="B1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -3093,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -3164,13 +3225,13 @@
         <v>196</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>32</v>
@@ -3194,7 +3255,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
@@ -3233,10 +3294,10 @@
         <v>108</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA2" s="25" t="s">
         <v>110</v>
@@ -3250,13 +3311,13 @@
         <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>35</v>
@@ -3280,7 +3341,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>21</v>
@@ -3319,10 +3380,10 @@
         <v>108</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA3" s="25" t="s">
         <v>110</v>
@@ -3336,13 +3397,13 @@
         <v>141</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -3366,7 +3427,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>21</v>
@@ -3405,10 +3466,10 @@
         <v>53</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA4" s="25" t="s">
         <v>109</v>
@@ -3422,13 +3483,13 @@
         <v>141</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -3452,7 +3513,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>21</v>
@@ -3491,10 +3552,10 @@
         <v>53</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA5" s="25" t="s">
         <v>109</v>
@@ -3508,13 +3569,13 @@
         <v>141</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>34</v>
@@ -3538,7 +3599,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>21</v>
@@ -3577,16 +3638,16 @@
         <v>53</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>109</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -3594,13 +3655,13 @@
         <v>141</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -3624,7 +3685,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>21</v>
@@ -3672,7 +3733,7 @@
         <v>109</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -3680,13 +3741,13 @@
         <v>141</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -3710,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>21</v>
@@ -3758,7 +3819,7 @@
         <v>109</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -3766,13 +3827,13 @@
         <v>141</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -3796,7 +3857,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -3844,7 +3905,7 @@
         <v>109</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3852,13 +3913,13 @@
         <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -3882,7 +3943,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>50</v>
@@ -3930,7 +3991,7 @@
         <v>109</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -3938,16 +3999,16 @@
         <v>141</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
+      <c r="D11" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E11" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>21</v>
@@ -3965,10 +4026,10 @@
         <v>91</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M11" s="67" t="s">
         <v>21</v>
@@ -4010,7 +4071,7 @@
         <v>26</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA11" s="39" t="s">
         <v>119</v>
@@ -4025,16 +4086,16 @@
         <v>197</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D12" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>87</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E12" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>21</v>
@@ -4052,10 +4113,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M12" s="67" t="s">
         <v>21</v>
@@ -4097,7 +4158,7 @@
         <v>26</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA12" s="39" t="s">
         <v>119</v>
@@ -4111,16 +4172,16 @@
         <v>146</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>88</v>
       </c>
+      <c r="D13" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E13" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>21</v>
@@ -4138,10 +4199,10 @@
         <v>42</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M13" s="67" t="s">
         <v>21</v>
@@ -4183,7 +4244,7 @@
         <v>26</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA13" s="39" t="s">
         <v>43</v>
@@ -4197,16 +4258,16 @@
         <v>146</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>89</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E14" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>21</v>
@@ -4224,10 +4285,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M14" s="67" t="s">
         <v>21</v>
@@ -4269,7 +4330,7 @@
         <v>26</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AA14" s="39" t="s">
         <v>43</v>
@@ -4283,16 +4344,16 @@
         <v>146</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D15" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>90</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E15" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>21</v>
@@ -4310,10 +4371,10 @@
         <v>42</v>
       </c>
       <c r="K15" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M15" s="67" t="s">
         <v>21</v>
@@ -4352,7 +4413,7 @@
         <v>109</v>
       </c>
       <c r="Y15" s="39" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>31</v>
@@ -4369,16 +4430,16 @@
         <v>142</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>72</v>
       </c>
+      <c r="D16" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E16" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>21</v>
@@ -4396,10 +4457,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M16" s="67" t="s">
         <v>21</v>
@@ -4441,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA16" s="39" t="s">
         <v>43</v>
@@ -4455,16 +4516,16 @@
         <v>142</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>73</v>
       </c>
+      <c r="D17" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E17" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="37" t="s">
         <v>21</v>
@@ -4482,10 +4543,10 @@
         <v>42</v>
       </c>
       <c r="K17" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M17" s="67" t="s">
         <v>21</v>
@@ -4527,7 +4588,7 @@
         <v>26</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>43</v>
@@ -4541,16 +4602,16 @@
         <v>144</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>74</v>
       </c>
+      <c r="D18" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E18" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>21</v>
@@ -4568,10 +4629,10 @@
         <v>42</v>
       </c>
       <c r="K18" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M18" s="67" t="s">
         <v>21</v>
@@ -4613,7 +4674,7 @@
         <v>26</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA18" s="39" t="s">
         <v>43</v>
@@ -4628,16 +4689,16 @@
         <v>144</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D19" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>75</v>
       </c>
+      <c r="D19" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E19" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>50</v>
@@ -4655,10 +4716,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M19" s="67" t="s">
         <v>50</v>
@@ -4700,7 +4761,7 @@
         <v>26</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA19" s="39" t="s">
         <v>43</v>
@@ -4714,13 +4775,13 @@
         <v>144</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D20" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>34</v>
@@ -4744,7 +4805,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>98</v>
@@ -4765,10 +4826,10 @@
         <v>25</v>
       </c>
       <c r="S20" s="81" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="T20" s="81" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="U20" s="82" t="s">
         <v>106</v>
@@ -4777,7 +4838,7 @@
         <v>26</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X20" s="35" t="s">
         <v>108</v>
@@ -4815,13 +4876,13 @@
         <v>144</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>77</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>34</v>
@@ -4845,7 +4906,7 @@
         <v>25</v>
       </c>
       <c r="L21" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M21" s="34" t="s">
         <v>98</v>
@@ -4866,10 +4927,10 @@
         <v>25</v>
       </c>
       <c r="S21" s="81" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="T21" s="81" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="U21" s="82" t="s">
         <v>106</v>
@@ -4878,7 +4939,7 @@
         <v>26</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X21" s="35" t="s">
         <v>108</v>
@@ -4916,13 +4977,13 @@
         <v>144</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>78</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>34</v>
@@ -4946,7 +5007,7 @@
         <v>25</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>98</v>
@@ -4967,10 +5028,10 @@
         <v>25</v>
       </c>
       <c r="S22" s="81" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="T22" s="81" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="U22" s="82" t="s">
         <v>105</v>
@@ -4979,7 +5040,7 @@
         <v>26</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>53</v>
@@ -5017,13 +5078,13 @@
         <v>144</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>34</v>
@@ -5047,7 +5108,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M23" s="34" t="s">
         <v>98</v>
@@ -5080,7 +5141,7 @@
         <v>26</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="X23" s="35" t="s">
         <v>53</v>
@@ -5089,13 +5150,13 @@
         <v>111</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB23" s="33" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AC23" s="69"/>
       <c r="AD23" s="70"/>
@@ -5118,13 +5179,13 @@
         <v>144</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>80</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>34</v>
@@ -5148,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>98</v>
@@ -5181,7 +5242,7 @@
         <v>26</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="X24" s="35" t="s">
         <v>53</v>
@@ -5190,13 +5251,13 @@
         <v>111</v>
       </c>
       <c r="Z24" s="36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB24" s="33" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AC24" s="69"/>
       <c r="AD24" s="70"/>
@@ -5219,13 +5280,13 @@
         <v>144</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>81</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>34</v>
@@ -5249,7 +5310,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M25" s="34" t="s">
         <v>98</v>
@@ -5282,7 +5343,7 @@
         <v>26</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="X25" s="35" t="s">
         <v>53</v>
@@ -5291,13 +5352,13 @@
         <v>111</v>
       </c>
       <c r="Z25" s="36" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AA25" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB25" s="33" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AC25" s="69"/>
       <c r="AD25" s="70"/>
@@ -5320,13 +5381,13 @@
         <v>144</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>82</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>34</v>
@@ -5350,7 +5411,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>98</v>
@@ -5392,13 +5453,13 @@
         <v>111</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AA26" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB26" s="33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AC26" s="69"/>
       <c r="AD26" s="70"/>
@@ -5421,13 +5482,13 @@
         <v>144</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D27" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>83</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>34</v>
@@ -5451,7 +5512,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>98</v>
@@ -5493,13 +5554,13 @@
         <v>112</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AA27" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AC27" s="69"/>
       <c r="AD27" s="70"/>
@@ -5522,13 +5583,13 @@
         <v>144</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>84</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>34</v>
@@ -5552,7 +5613,7 @@
         <v>49</v>
       </c>
       <c r="L28" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M28" s="34" t="s">
         <v>98</v>
@@ -5594,13 +5655,13 @@
         <v>113</v>
       </c>
       <c r="Z28" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AA28" s="36" t="s">
         <v>109</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AD28" s="70"/>
     </row>
@@ -5609,22 +5670,22 @@
         <v>144</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D29" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="63" t="s">
         <v>200</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H29" s="63" t="s">
         <v>20</v>
@@ -5633,19 +5694,19 @@
         <v>40</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K29" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="N29" s="63" t="s">
         <v>240</v>
-      </c>
-      <c r="M29" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="N29" s="63" t="s">
-        <v>242</v>
       </c>
       <c r="O29" s="63" t="s">
         <v>26</v>
@@ -5696,19 +5757,19 @@
         <v>144</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D30" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>201</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>47</v>
@@ -5720,19 +5781,19 @@
         <v>39</v>
       </c>
       <c r="J30" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K30" s="66" t="s">
         <v>49</v>
       </c>
       <c r="L30" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M30" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="N30" s="66" t="s">
         <v>241</v>
-      </c>
-      <c r="N30" s="66" t="s">
-        <v>243</v>
       </c>
       <c r="O30" s="66" t="s">
         <v>51</v>
@@ -5783,22 +5844,22 @@
         <v>144</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="63" t="s">
         <v>202</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="66" t="s">
         <v>245</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>247</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>39</v>
@@ -5807,19 +5868,19 @@
         <v>39</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>49</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M31" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N31" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O31" s="66" t="s">
         <v>51</v>
@@ -5870,22 +5931,22 @@
         <v>144</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D32" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>203</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>20</v>
@@ -5894,19 +5955,19 @@
         <v>40</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K32" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M32" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N32" s="63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O32" s="63" t="s">
         <v>26</v>
@@ -5957,22 +6018,22 @@
         <v>144</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D33" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="63" t="s">
         <v>204</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>20</v>
@@ -5981,19 +6042,19 @@
         <v>40</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K33" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M33" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N33" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O33" s="63" t="s">
         <v>26</v>
@@ -6044,22 +6105,22 @@
         <v>144</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D34" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H34" s="68" t="s">
         <v>20</v>
@@ -6074,7 +6135,7 @@
         <v>49</v>
       </c>
       <c r="L34" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M34" s="68" t="s">
         <v>95</v>
@@ -6101,28 +6162,28 @@
         <v>20</v>
       </c>
       <c r="U34" s="87" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>125</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AA34" s="15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AD34" s="70"/>
     </row>
@@ -6131,22 +6192,22 @@
         <v>142</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>300</v>
+        <v>377</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H35" s="68" t="s">
         <v>20</v>
@@ -6161,7 +6222,7 @@
         <v>49</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M35" s="68" t="s">
         <v>95</v>
@@ -6188,28 +6249,28 @@
         <v>20</v>
       </c>
       <c r="U35" s="84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="W35" s="45" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X35" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y35" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z35" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA35" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB35" s="44" t="s">
         <v>361</v>
-      </c>
-      <c r="Y35" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z35" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA35" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB35" s="44" t="s">
-        <v>366</v>
       </c>
       <c r="AD35" s="70"/>
     </row>
@@ -6218,22 +6279,22 @@
         <v>147</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>301</v>
+        <v>378</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H36" s="68" t="s">
         <v>20</v>
@@ -6248,7 +6309,7 @@
         <v>25</v>
       </c>
       <c r="L36" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M36" s="68" t="s">
         <v>95</v>
@@ -6281,22 +6342,22 @@
         <v>26</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Y36" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z36" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA36" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB36" s="44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AD36" s="70"/>
     </row>
@@ -6305,22 +6366,22 @@
         <v>147</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>302</v>
+        <v>379</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H37" s="68" t="s">
         <v>20</v>
@@ -6335,7 +6396,7 @@
         <v>25</v>
       </c>
       <c r="L37" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M37" s="68" t="s">
         <v>95</v>
@@ -6371,19 +6432,19 @@
         <v>126</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z37" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA37" s="46" t="s">
         <v>110</v>
       </c>
       <c r="AB37" s="44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AD37" s="70"/>
     </row>
@@ -6392,22 +6453,22 @@
         <v>148</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>303</v>
+        <v>380</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H38" s="68" t="s">
         <v>20</v>
@@ -6422,7 +6483,7 @@
         <v>25</v>
       </c>
       <c r="L38" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M38" s="68" t="s">
         <v>95</v>
@@ -6449,7 +6510,7 @@
         <v>20</v>
       </c>
       <c r="U38" s="84" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="V38" s="45" t="s">
         <v>26</v>
@@ -6458,19 +6519,19 @@
         <v>126</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Y38" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA38" s="46" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AB38" s="44" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AD38" s="70"/>
     </row>
@@ -6479,22 +6540,22 @@
         <v>148</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>304</v>
+        <v>381</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>95</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H39" s="68" t="s">
         <v>20</v>
@@ -6509,7 +6570,7 @@
         <v>49</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M39" s="68" t="s">
         <v>95</v>
@@ -6536,7 +6597,7 @@
         <v>20</v>
       </c>
       <c r="U39" s="84" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="V39" s="45" t="s">
         <v>26</v>
@@ -6545,19 +6606,19 @@
         <v>126</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y39" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z39" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA39" s="46" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AB39" s="44" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -6565,22 +6626,22 @@
         <v>148</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D40" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>133</v>
       </c>
+      <c r="D40" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E40" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H40" s="68" t="s">
         <v>20</v>
@@ -6595,7 +6656,7 @@
         <v>49</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M40" s="68" t="s">
         <v>95</v>
@@ -6631,19 +6692,19 @@
         <v>126</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z40" s="46" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA40" s="46" t="s">
         <v>109</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -6651,22 +6712,22 @@
         <v>148</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D41" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="56" t="s">
         <v>208</v>
       </c>
+      <c r="D41" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E41" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H41" s="67" t="s">
         <v>20</v>
@@ -6681,7 +6742,7 @@
         <v>25</v>
       </c>
       <c r="L41" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M41" s="67" t="s">
         <v>21</v>
@@ -6714,22 +6775,22 @@
         <v>26</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X41" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -6737,22 +6798,22 @@
         <v>148</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D42" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>209</v>
       </c>
+      <c r="D42" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E42" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H42" s="67" t="s">
         <v>20</v>
@@ -6767,7 +6828,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M42" s="67" t="s">
         <v>21</v>
@@ -6797,25 +6858,25 @@
         <v>118</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X42" s="42" t="s">
         <v>109</v>
       </c>
       <c r="Y42" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Z42" s="43" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -6825,20 +6886,20 @@
       <c r="B43" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="58" t="s">
         <v>210</v>
       </c>
+      <c r="D43" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E43" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H43" s="67" t="s">
         <v>20</v>
@@ -6853,7 +6914,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M43" s="67" t="s">
         <v>21</v>
@@ -6880,28 +6941,28 @@
         <v>20</v>
       </c>
       <c r="U43" s="84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W43" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Y43" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z43" s="46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AA43" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB43" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -6909,22 +6970,22 @@
         <v>148</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D44" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>211</v>
       </c>
+      <c r="D44" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E44" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H44" s="67" t="s">
         <v>39</v>
@@ -6939,7 +7000,7 @@
         <v>49</v>
       </c>
       <c r="L44" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M44" s="67" t="s">
         <v>50</v>
@@ -6966,28 +7027,28 @@
         <v>20</v>
       </c>
       <c r="U44" s="84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W44" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Y44" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z44" s="46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AA44" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB44" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -6995,43 +7056,43 @@
         <v>148</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D45" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>212</v>
       </c>
+      <c r="D45" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E45" s="44" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>25</v>
+        <v>288</v>
+      </c>
+      <c r="H45" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" s="67" t="s">
+        <v>385</v>
       </c>
       <c r="L45" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M45" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="44" t="s">
-        <v>55</v>
+        <v>386</v>
+      </c>
+      <c r="M45" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="N45" s="67" t="s">
+        <v>388</v>
       </c>
       <c r="O45" s="44" t="s">
         <v>26</v>
@@ -7052,28 +7113,28 @@
         <v>20</v>
       </c>
       <c r="U45" s="84" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W45" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X45" s="45" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y45" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z45" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA45" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB45" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -7081,22 +7142,22 @@
         <v>148</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D46" s="55">
+        <v>307</v>
+      </c>
+      <c r="C46" s="55">
         <v>54701863</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>222</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H46" s="67" t="s">
         <v>20</v>
@@ -7108,10 +7169,10 @@
         <v>223</v>
       </c>
       <c r="K46" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L46" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M46" s="67" t="s">
         <v>21</v>
@@ -7138,28 +7199,28 @@
         <v>20</v>
       </c>
       <c r="U46" s="84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W46" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X46" s="45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Y46" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z46" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA46" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB46" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -7167,22 +7228,22 @@
         <v>148</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D47" s="59">
+        <v>308</v>
+      </c>
+      <c r="C47" s="59">
         <v>55014660</v>
       </c>
+      <c r="D47" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E47" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H47" s="67" t="s">
         <v>39</v>
@@ -7194,16 +7255,16 @@
         <v>224</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L47" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M47" s="67" t="s">
         <v>50</v>
       </c>
       <c r="N47" s="67" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="O47" s="44" t="s">
         <v>51</v>
@@ -7224,28 +7285,28 @@
         <v>20</v>
       </c>
       <c r="U47" s="84" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V47" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W47" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X47" s="45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Y47" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z47" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA47" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB47" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -7253,22 +7314,22 @@
         <v>148</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="61">
+        <v>308</v>
+      </c>
+      <c r="C48" s="61">
         <v>54858186</v>
       </c>
+      <c r="D48" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E48" s="44" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H48" s="67" t="s">
         <v>20</v>
@@ -7283,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="L48" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M48" s="67" t="s">
         <v>21</v>
@@ -7310,28 +7371,28 @@
         <v>20</v>
       </c>
       <c r="U48" s="84" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W48" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X48" s="45" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y48" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z48" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA48" s="46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AB48" s="45" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -7339,43 +7400,43 @@
         <v>148</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" s="61">
+        <v>309</v>
+      </c>
+      <c r="C49" s="61">
         <v>54932403</v>
       </c>
+      <c r="D49" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E49" s="44" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="M49" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="H49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="K49" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="L49" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M49" s="44" t="s">
-        <v>329</v>
-      </c>
       <c r="N49" s="44" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O49" s="44" t="s">
         <v>26</v>
@@ -7396,28 +7457,28 @@
         <v>20</v>
       </c>
       <c r="U49" s="84" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V49" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W49" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X49" s="45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y49" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z49" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA49" s="46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB49" s="45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -7425,43 +7486,43 @@
         <v>198</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D50" s="61">
+        <v>310</v>
+      </c>
+      <c r="C50" s="61">
         <v>55049993</v>
       </c>
+      <c r="D50" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="E50" s="44" t="s">
-        <v>222</v>
+        <v>382</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="H50" s="44" t="s">
-        <v>330</v>
-      </c>
       <c r="I50" s="44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K50" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L50" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="M50" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="N50" s="44" t="s">
         <v>328</v>
-      </c>
-      <c r="L50" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M50" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="N50" s="44" t="s">
-        <v>333</v>
       </c>
       <c r="O50" s="44" t="s">
         <v>26</v>
@@ -7482,28 +7543,28 @@
         <v>20</v>
       </c>
       <c r="U50" s="84" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V50" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W50" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X50" s="45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z50" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA50" s="46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB50" s="45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -7511,43 +7572,43 @@
         <v>199</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D51" s="53">
+        <v>311</v>
+      </c>
+      <c r="C51" s="53">
         <v>54857526</v>
       </c>
-      <c r="E51" s="53" t="s">
-        <v>253</v>
+      <c r="D51" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K51" s="44" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L51" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M51" s="44" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="N51" s="44" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O51" s="44" t="s">
         <v>26</v>
@@ -7568,28 +7629,28 @@
         <v>20</v>
       </c>
       <c r="U51" s="84" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V51" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W51" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X51" s="45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z51" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA51" s="46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB51" s="45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -7597,43 +7658,43 @@
         <v>226</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="53">
+        <v>305</v>
+      </c>
+      <c r="C52" s="53">
         <v>55046375</v>
       </c>
-      <c r="E52" s="53" t="s">
-        <v>222</v>
+      <c r="D52" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G52" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J52" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="M52" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="H52" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="J52" s="44" t="s">
+      <c r="N52" s="44" t="s">
         <v>327</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="N52" s="44" t="s">
-        <v>332</v>
       </c>
       <c r="O52" s="44" t="s">
         <v>26</v>
@@ -7654,28 +7715,28 @@
         <v>20</v>
       </c>
       <c r="U52" s="84" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V52" s="45" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W52" s="45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="X52" s="45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y52" s="46" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA52" s="46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AB52" s="45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -7683,22 +7744,22 @@
         <v>225</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D53" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>134</v>
       </c>
+      <c r="D53" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="E53" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H53" s="68" t="s">
         <v>20</v>
@@ -7713,7 +7774,7 @@
         <v>25</v>
       </c>
       <c r="L53" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M53" s="68" t="s">
         <v>95</v>
@@ -7740,28 +7801,28 @@
         <v>20</v>
       </c>
       <c r="U53" s="86" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V53" s="42" t="s">
         <v>26</v>
       </c>
       <c r="W53" s="42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="X53" s="42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Z53" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AA53" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AB53" s="41" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7769,22 +7830,22 @@
         <v>225</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C54" s="56" t="s">
         <v>205</v>
       </c>
+      <c r="D54" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="E54" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H54" s="67" t="s">
         <v>20</v>
@@ -7799,7 +7860,7 @@
         <v>25</v>
       </c>
       <c r="L54" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M54" s="67" t="s">
         <v>21</v>
@@ -7823,54 +7884,54 @@
         <v>20</v>
       </c>
       <c r="T54" s="86" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="U54" s="86" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V54" s="42" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W54" s="42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="X54" s="42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y54" s="43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z54" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AA54" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AB54" s="41" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D55" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="56" t="s">
         <v>206</v>
       </c>
+      <c r="D55" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E55" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F55" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H55" s="67" t="s">
         <v>20</v>
@@ -7885,7 +7946,7 @@
         <v>49</v>
       </c>
       <c r="L55" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M55" s="67" t="s">
         <v>21</v>
@@ -7906,57 +7967,57 @@
         <v>25</v>
       </c>
       <c r="S55" s="86" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="T55" s="86" t="s">
         <v>20</v>
       </c>
       <c r="U55" s="86" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="V55" s="42" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="W55" s="42" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="X55" s="42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y55" s="43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Z55" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AB55" s="41" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D56" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="56" t="s">
         <v>207</v>
       </c>
+      <c r="D56" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="E56" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H56" s="67" t="s">
         <v>20</v>
@@ -7971,7 +8032,7 @@
         <v>49</v>
       </c>
       <c r="L56" s="67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M56" s="67" t="s">
         <v>21</v>
@@ -7992,34 +8053,34 @@
         <v>25</v>
       </c>
       <c r="S56" s="86" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="T56" s="86" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="U56" s="86" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="V56" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="W56" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="X56" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y56" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z56" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA56" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="W56" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="X56" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y56" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z56" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA56" s="43" t="s">
-        <v>341</v>
-      </c>
       <c r="AB56" s="41" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -350,14 +350,1053 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54991848</t>
+  </si>
+  <si>
+    <t>55013170</t>
+  </si>
+  <si>
+    <t>54854669</t>
+  </si>
+  <si>
+    <t>54912629</t>
+  </si>
+  <si>
+    <t>54975789</t>
+  </si>
+  <si>
+    <t>54978281</t>
+  </si>
+  <si>
+    <t>54902435</t>
+  </si>
+  <si>
+    <t>54935613</t>
+  </si>
+  <si>
+    <t>55099697</t>
+  </si>
+  <si>
+    <t>55009792</t>
+  </si>
+  <si>
+    <t>标书说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻6</t>
+  </si>
+  <si>
+    <t>大新闻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻2</t>
+  </si>
+  <si>
+    <t>大新闻4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻4</t>
+  </si>
+  <si>
+    <t>大新闻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻1</t>
+  </si>
+  <si>
+    <t>55096187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55096928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54829631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55076833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54910528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍3</t>
+  </si>
+  <si>
+    <t>拍4</t>
+  </si>
+  <si>
+    <t>拍5</t>
+  </si>
+  <si>
+    <t>拍6</t>
+  </si>
+  <si>
+    <t>拍7</t>
+  </si>
+  <si>
+    <t>拍8</t>
+  </si>
+  <si>
+    <t>拍9</t>
+  </si>
+  <si>
+    <t>拍10</t>
+  </si>
+  <si>
+    <t>拍11</t>
+  </si>
+  <si>
+    <t>拍12</t>
+  </si>
+  <si>
+    <t>拍13</t>
+  </si>
+  <si>
+    <t>拍14</t>
+  </si>
+  <si>
+    <t>拍15</t>
+  </si>
+  <si>
+    <t>拍16</t>
+  </si>
+  <si>
+    <t>拍17</t>
+  </si>
+  <si>
+    <t>拍18</t>
+  </si>
+  <si>
+    <t>拍19</t>
+  </si>
+  <si>
+    <t>拍20</t>
+  </si>
+  <si>
+    <t>拍21</t>
+  </si>
+  <si>
+    <t>拍22</t>
+  </si>
+  <si>
+    <t>拍23</t>
+  </si>
+  <si>
+    <t>拍24</t>
+  </si>
+  <si>
+    <t>拍25</t>
+  </si>
+  <si>
+    <t>拍26</t>
+  </si>
+  <si>
+    <t>拍27</t>
+  </si>
+  <si>
+    <t>拍28</t>
+  </si>
+  <si>
+    <t>拍29</t>
+  </si>
+  <si>
+    <t>拍30</t>
+  </si>
+  <si>
+    <t>拍31</t>
+  </si>
+  <si>
+    <t>朱甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标书说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55096187</t>
+  </si>
+  <si>
+    <t>55096928</t>
+  </si>
+  <si>
+    <t>54829631</t>
+  </si>
+  <si>
+    <t>55076833</t>
+  </si>
+  <si>
+    <t>54910528</t>
+  </si>
+  <si>
+    <t>54995785</t>
+  </si>
+  <si>
+    <t>54985219</t>
+  </si>
+  <si>
+    <t>54859485</t>
+  </si>
+  <si>
+    <t>54710419</t>
+  </si>
+  <si>
+    <t>55044018</t>
+  </si>
+  <si>
+    <t>54871596</t>
+  </si>
+  <si>
+    <t>54891636</t>
+  </si>
+  <si>
+    <t>54952307</t>
+  </si>
+  <si>
+    <t>54801061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54713450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54892189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54901243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54881000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55084907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54718801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54843504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54874968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>35</t>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大新闻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周寅杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆跃宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖承剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜贤波</t>
+  </si>
+  <si>
+    <t>刘旭光</t>
+  </si>
+  <si>
+    <t>孙亚龙</t>
+  </si>
+  <si>
+    <t>陈树</t>
+  </si>
+  <si>
+    <t>张博</t>
+  </si>
+  <si>
+    <t>赵建升</t>
+  </si>
+  <si>
+    <t>陈斌</t>
+  </si>
+  <si>
+    <t>顾玉江</t>
+  </si>
+  <si>
+    <t>李念鸿</t>
+  </si>
+  <si>
+    <t>雷笑笑</t>
+  </si>
+  <si>
+    <t>陈艺鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦罗佳</t>
+  </si>
+  <si>
+    <t>陈宾</t>
+  </si>
+  <si>
+    <t>吴迪</t>
+  </si>
+  <si>
+    <t>朱银婷</t>
+  </si>
+  <si>
+    <t>谢寅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡鑫玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶天颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱甚2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54769349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54991848</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55013170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54854669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54912629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,83 +1404,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.1</t>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨星5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,394 +1436,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54991848</t>
-  </si>
-  <si>
-    <t>55013170</t>
-  </si>
-  <si>
-    <t>54854669</t>
-  </si>
-  <si>
-    <t>54912629</t>
-  </si>
-  <si>
-    <t>54975789</t>
-  </si>
-  <si>
-    <t>54978281</t>
-  </si>
-  <si>
-    <t>54902435</t>
-  </si>
-  <si>
-    <t>54935613</t>
-  </si>
-  <si>
-    <t>55099697</t>
-  </si>
-  <si>
-    <t>55009792</t>
-  </si>
-  <si>
-    <t>标书说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻6</t>
-  </si>
-  <si>
-    <t>大新闻2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻2</t>
-  </si>
-  <si>
-    <t>大新闻4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻4</t>
-  </si>
-  <si>
-    <t>大新闻1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻1</t>
-  </si>
-  <si>
-    <t>55096187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55096928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54829631</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55076833</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54910528</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秀文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍3</t>
-  </si>
-  <si>
-    <t>拍4</t>
-  </si>
-  <si>
-    <t>拍5</t>
-  </si>
-  <si>
-    <t>拍6</t>
-  </si>
-  <si>
-    <t>拍7</t>
-  </si>
-  <si>
-    <t>拍8</t>
-  </si>
-  <si>
-    <t>拍9</t>
-  </si>
-  <si>
-    <t>拍10</t>
-  </si>
-  <si>
-    <t>拍11</t>
-  </si>
-  <si>
-    <t>拍12</t>
-  </si>
-  <si>
-    <t>拍13</t>
-  </si>
-  <si>
-    <t>拍14</t>
-  </si>
-  <si>
-    <t>拍15</t>
-  </si>
-  <si>
-    <t>拍16</t>
-  </si>
-  <si>
-    <t>拍17</t>
-  </si>
-  <si>
-    <t>拍18</t>
-  </si>
-  <si>
-    <t>拍19</t>
-  </si>
-  <si>
-    <t>拍20</t>
-  </si>
-  <si>
-    <t>拍21</t>
-  </si>
-  <si>
-    <t>拍22</t>
-  </si>
-  <si>
-    <t>拍23</t>
-  </si>
-  <si>
-    <t>拍24</t>
-  </si>
-  <si>
-    <t>拍25</t>
-  </si>
-  <si>
-    <t>拍26</t>
-  </si>
-  <si>
-    <t>拍27</t>
-  </si>
-  <si>
-    <t>拍28</t>
-  </si>
-  <si>
-    <t>拍29</t>
-  </si>
-  <si>
-    <t>拍30</t>
-  </si>
-  <si>
-    <t>拍31</t>
-  </si>
-  <si>
-    <t>朱甚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标书说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55096187</t>
-  </si>
-  <si>
-    <t>55096928</t>
-  </si>
-  <si>
-    <t>54829631</t>
-  </si>
-  <si>
-    <t>55076833</t>
-  </si>
-  <si>
-    <t>54910528</t>
-  </si>
-  <si>
-    <t>54995785</t>
-  </si>
-  <si>
-    <t>54985219</t>
-  </si>
-  <si>
-    <t>54859485</t>
-  </si>
-  <si>
-    <t>54710419</t>
-  </si>
-  <si>
-    <t>55044018</t>
-  </si>
-  <si>
-    <t>54871596</t>
-  </si>
-  <si>
-    <t>54891636</t>
-  </si>
-  <si>
-    <t>54952307</t>
-  </si>
-  <si>
-    <t>54801061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54713450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54892189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54901243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54881000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55084907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54718801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54843504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54874968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,623 +1456,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大新闻3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秀文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周寅杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骆跃宾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴佳乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廖承剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹邦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜贤波</t>
-  </si>
-  <si>
-    <t>刘旭光</t>
-  </si>
-  <si>
-    <t>孙亚龙</t>
-  </si>
-  <si>
-    <t>陈树</t>
-  </si>
-  <si>
-    <t>张博</t>
-  </si>
-  <si>
-    <t>赵建升</t>
-  </si>
-  <si>
-    <t>陈斌</t>
-  </si>
-  <si>
-    <t>顾玉江</t>
-  </si>
-  <si>
-    <t>李念鸿</t>
-  </si>
-  <si>
-    <t>雷笑笑</t>
-  </si>
-  <si>
-    <t>陈艺鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦罗佳</t>
-  </si>
-  <si>
-    <t>陈宾</t>
-  </si>
-  <si>
-    <t>吴迪</t>
-  </si>
-  <si>
-    <t>朱银婷</t>
-  </si>
-  <si>
-    <t>谢寅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡鑫玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶天颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王小艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱甚2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54769349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54991848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55013170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54854669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54912629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨星5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
+    <t>40.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="396">
+  <cellStyleXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1828,6 +1828,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2363,7 +2365,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="396">
+  <cellStyles count="398">
     <cellStyle name="常规 7" xfId="123"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -2562,6 +2564,7 @@
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2759,6 +2762,7 @@
     <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3090,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3121,16 +3125,16 @@
   <sheetData>
     <row r="1" spans="1:43" s="71" customFormat="1">
       <c r="A1" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -3154,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -3222,22 +3226,22 @@
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>38</v>
@@ -3255,7 +3259,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
@@ -3282,42 +3286,42 @@
         <v>23</v>
       </c>
       <c r="U2" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V2" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>35</v>
@@ -3341,7 +3345,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>21</v>
@@ -3368,42 +3372,42 @@
         <v>20</v>
       </c>
       <c r="U3" s="79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V3" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA3" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -3427,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>21</v>
@@ -3454,42 +3458,42 @@
         <v>20</v>
       </c>
       <c r="U4" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V4" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W4" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -3513,7 +3517,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>21</v>
@@ -3540,42 +3544,42 @@
         <v>20</v>
       </c>
       <c r="U5" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W5" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>34</v>
@@ -3599,7 +3603,7 @@
         <v>25</v>
       </c>
       <c r="L6" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>21</v>
@@ -3626,42 +3630,42 @@
         <v>20</v>
       </c>
       <c r="U6" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X6" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -3685,7 +3689,7 @@
         <v>25</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>21</v>
@@ -3712,42 +3716,42 @@
         <v>20</v>
       </c>
       <c r="U7" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X7" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y7" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AA7" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -3771,7 +3775,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>21</v>
@@ -3798,42 +3802,42 @@
         <v>20</v>
       </c>
       <c r="U8" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W8" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X8" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y8" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -3857,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -3884,42 +3888,42 @@
         <v>20</v>
       </c>
       <c r="U9" s="79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V9" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W9" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X9" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y9" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="AA9" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -3943,7 +3947,7 @@
         <v>49</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>50</v>
@@ -3970,45 +3974,45 @@
         <v>39</v>
       </c>
       <c r="U10" s="79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V10" s="24" t="s">
         <v>26</v>
       </c>
       <c r="W10" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X10" s="24" t="s">
         <v>53</v>
       </c>
       <c r="Y10" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z10" s="25" t="s">
         <v>52</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>21</v>
@@ -4026,10 +4030,10 @@
         <v>91</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M11" s="67" t="s">
         <v>21</v>
@@ -4050,10 +4054,10 @@
         <v>25</v>
       </c>
       <c r="S11" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T11" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U11" s="80" t="s">
         <v>30</v>
@@ -4065,37 +4069,37 @@
         <v>31</v>
       </c>
       <c r="X11" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y11" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA11" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB11" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC11" s="73"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>21</v>
@@ -4113,10 +4117,10 @@
         <v>42</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M12" s="67" t="s">
         <v>21</v>
@@ -4137,10 +4141,10 @@
         <v>25</v>
       </c>
       <c r="S12" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T12" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U12" s="80" t="s">
         <v>30</v>
@@ -4152,36 +4156,36 @@
         <v>31</v>
       </c>
       <c r="X12" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y12" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA12" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB12" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>21</v>
@@ -4199,10 +4203,10 @@
         <v>42</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M13" s="67" t="s">
         <v>21</v>
@@ -4223,10 +4227,10 @@
         <v>25</v>
       </c>
       <c r="S13" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T13" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U13" s="80" t="s">
         <v>30</v>
@@ -4238,36 +4242,36 @@
         <v>31</v>
       </c>
       <c r="X13" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA13" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AB13" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>21</v>
@@ -4285,10 +4289,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L14" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M14" s="67" t="s">
         <v>21</v>
@@ -4309,10 +4313,10 @@
         <v>25</v>
       </c>
       <c r="S14" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T14" s="80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U14" s="80" t="s">
         <v>30</v>
@@ -4324,36 +4328,36 @@
         <v>31</v>
       </c>
       <c r="X14" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA14" s="39" t="s">
         <v>43</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>21</v>
@@ -4371,10 +4375,10 @@
         <v>42</v>
       </c>
       <c r="K15" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M15" s="67" t="s">
         <v>21</v>
@@ -4395,25 +4399,25 @@
         <v>25</v>
       </c>
       <c r="S15" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="U15" s="80" t="s">
-        <v>118</v>
-      </c>
       <c r="V15" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W15" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X15" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>31</v>
@@ -4422,24 +4426,24 @@
         <v>43</v>
       </c>
       <c r="AB15" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>21</v>
@@ -4457,10 +4461,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L16" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M16" s="67" t="s">
         <v>21</v>
@@ -4481,28 +4485,28 @@
         <v>25</v>
       </c>
       <c r="S16" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="T16" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="U16" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="U16" s="80" t="s">
-        <v>118</v>
-      </c>
       <c r="V16" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W16" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X16" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA16" s="39" t="s">
         <v>43</v>
@@ -4513,19 +4517,19 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="37" t="s">
         <v>21</v>
@@ -4543,10 +4547,10 @@
         <v>42</v>
       </c>
       <c r="K17" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L17" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M17" s="67" t="s">
         <v>21</v>
@@ -4567,28 +4571,28 @@
         <v>25</v>
       </c>
       <c r="S17" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="T17" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="T17" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="U17" s="80" t="s">
-        <v>118</v>
-      </c>
       <c r="V17" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W17" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X17" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y17" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>43</v>
@@ -4599,19 +4603,19 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>21</v>
@@ -4629,10 +4633,10 @@
         <v>42</v>
       </c>
       <c r="K18" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L18" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M18" s="67" t="s">
         <v>21</v>
@@ -4653,28 +4657,28 @@
         <v>25</v>
       </c>
       <c r="S18" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="U18" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="T18" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="U18" s="80" t="s">
-        <v>118</v>
-      </c>
       <c r="V18" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W18" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X18" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y18" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA18" s="39" t="s">
         <v>43</v>
@@ -4686,19 +4690,19 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>50</v>
@@ -4716,10 +4720,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L19" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M19" s="67" t="s">
         <v>50</v>
@@ -4740,28 +4744,28 @@
         <v>49</v>
       </c>
       <c r="S19" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="T19" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="U19" s="80" t="s">
-        <v>118</v>
-      </c>
       <c r="V19" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X19" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y19" s="39" t="s">
         <v>26</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA19" s="39" t="s">
         <v>43</v>
@@ -4772,22 +4776,22 @@
     </row>
     <row r="20" spans="1:43" s="74" customFormat="1">
       <c r="A20" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>38</v>
@@ -4799,19 +4803,19 @@
         <v>20</v>
       </c>
       <c r="J20" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="N20" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>26</v>
@@ -4826,34 +4830,34 @@
         <v>25</v>
       </c>
       <c r="S20" s="81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T20" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U20" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V20" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X20" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y20" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z20" s="36" t="s">
         <v>20</v>
       </c>
       <c r="AA20" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB20" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC20" s="69"/>
       <c r="AD20" s="69"/>
@@ -4873,22 +4877,22 @@
     </row>
     <row r="21" spans="1:43" s="74" customFormat="1">
       <c r="A21" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>38</v>
@@ -4900,19 +4904,19 @@
         <v>20</v>
       </c>
       <c r="J21" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="K21" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>98</v>
-      </c>
       <c r="N21" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O21" s="34" t="s">
         <v>26</v>
@@ -4927,34 +4931,34 @@
         <v>25</v>
       </c>
       <c r="S21" s="81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T21" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="U21" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="W21" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="U21" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="W21" s="35" t="s">
-        <v>344</v>
-      </c>
       <c r="X21" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y21" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z21" s="36" t="s">
         <v>20</v>
       </c>
       <c r="AA21" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB21" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC21" s="69"/>
       <c r="AD21" s="69"/>
@@ -4974,22 +4978,22 @@
     </row>
     <row r="22" spans="1:43" s="74" customFormat="1">
       <c r="A22" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>47</v>
@@ -5001,19 +5005,19 @@
         <v>20</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K22" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O22" s="34" t="s">
         <v>26</v>
@@ -5028,34 +5032,34 @@
         <v>25</v>
       </c>
       <c r="S22" s="81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T22" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U22" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V22" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y22" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z22" s="36" t="s">
         <v>20</v>
       </c>
       <c r="AA22" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB22" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC22" s="69"/>
       <c r="AD22" s="70"/>
@@ -5075,22 +5079,22 @@
     </row>
     <row r="23" spans="1:43" s="74" customFormat="1">
       <c r="A23" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>47</v>
@@ -5102,19 +5106,19 @@
         <v>20</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N23" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O23" s="34" t="s">
         <v>26</v>
@@ -5135,28 +5139,28 @@
         <v>20</v>
       </c>
       <c r="U23" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V23" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X23" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y23" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA23" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB23" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC23" s="69"/>
       <c r="AD23" s="70"/>
@@ -5176,22 +5180,22 @@
     </row>
     <row r="24" spans="1:43" s="74" customFormat="1">
       <c r="A24" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>47</v>
@@ -5203,19 +5207,19 @@
         <v>20</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K24" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="34" t="s">
         <v>26</v>
@@ -5236,28 +5240,28 @@
         <v>20</v>
       </c>
       <c r="U24" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V24" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X24" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y24" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z24" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA24" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB24" s="33" t="s">
         <v>347</v>
-      </c>
-      <c r="AA24" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB24" s="33" t="s">
-        <v>348</v>
       </c>
       <c r="AC24" s="69"/>
       <c r="AD24" s="70"/>
@@ -5277,22 +5281,22 @@
     </row>
     <row r="25" spans="1:43" s="74" customFormat="1">
       <c r="A25" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>48</v>
@@ -5304,19 +5308,19 @@
         <v>20</v>
       </c>
       <c r="J25" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O25" s="34" t="s">
         <v>26</v>
@@ -5337,28 +5341,28 @@
         <v>20</v>
       </c>
       <c r="U25" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V25" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X25" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y25" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z25" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA25" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB25" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC25" s="69"/>
       <c r="AD25" s="70"/>
@@ -5378,22 +5382,22 @@
     </row>
     <row r="26" spans="1:43" s="74" customFormat="1">
       <c r="A26" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>48</v>
@@ -5405,19 +5409,19 @@
         <v>20</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O26" s="34" t="s">
         <v>26</v>
@@ -5438,28 +5442,28 @@
         <v>20</v>
       </c>
       <c r="U26" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V26" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W26" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X26" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y26" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA26" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB26" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC26" s="69"/>
       <c r="AD26" s="70"/>
@@ -5479,22 +5483,22 @@
     </row>
     <row r="27" spans="1:43" s="74" customFormat="1">
       <c r="A27" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>48</v>
@@ -5506,19 +5510,19 @@
         <v>20</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K27" s="34" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O27" s="34" t="s">
         <v>26</v>
@@ -5539,28 +5543,28 @@
         <v>20</v>
       </c>
       <c r="U27" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V27" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W27" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X27" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y27" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AA27" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC27" s="69"/>
       <c r="AD27" s="70"/>
@@ -5580,22 +5584,22 @@
     </row>
     <row r="28" spans="1:43">
       <c r="A28" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>48</v>
@@ -5607,19 +5611,19 @@
         <v>39</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28" s="34" t="s">
         <v>49</v>
       </c>
       <c r="L28" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O28" s="34" t="s">
         <v>51</v>
@@ -5640,52 +5644,52 @@
         <v>39</v>
       </c>
       <c r="U28" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W28" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X28" s="35" t="s">
         <v>53</v>
       </c>
       <c r="Y28" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z28" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB28" s="33" t="s">
         <v>349</v>
-      </c>
-      <c r="AA28" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB28" s="33" t="s">
-        <v>350</v>
       </c>
       <c r="AD28" s="70"/>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="63" t="s">
         <v>243</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>244</v>
       </c>
       <c r="H29" s="63" t="s">
         <v>20</v>
@@ -5694,19 +5698,19 @@
         <v>40</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K29" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="M29" s="63" t="s">
+      <c r="N29" s="63" t="s">
         <v>239</v>
-      </c>
-      <c r="N29" s="63" t="s">
-        <v>240</v>
       </c>
       <c r="O29" s="63" t="s">
         <v>26</v>
@@ -5736,40 +5740,40 @@
         <v>31</v>
       </c>
       <c r="X29" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y29" s="65" t="s">
         <v>26</v>
       </c>
       <c r="Z29" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA29" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AB29" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD29" s="70"/>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G30" s="66" t="s">
         <v>47</v>
@@ -5781,19 +5785,19 @@
         <v>39</v>
       </c>
       <c r="J30" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K30" s="66" t="s">
         <v>49</v>
       </c>
       <c r="L30" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="M30" s="63" t="s">
-        <v>239</v>
-      </c>
       <c r="N30" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O30" s="66" t="s">
         <v>51</v>
@@ -5823,43 +5827,43 @@
         <v>31</v>
       </c>
       <c r="X30" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y30" s="65" t="s">
         <v>26</v>
       </c>
       <c r="Z30" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA30" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AB30" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD30" s="70"/>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G31" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H31" s="66" t="s">
         <v>39</v>
@@ -5868,19 +5872,19 @@
         <v>39</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K31" s="66" t="s">
         <v>49</v>
       </c>
       <c r="L31" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="M31" s="63" t="s">
-        <v>239</v>
-      </c>
       <c r="N31" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O31" s="66" t="s">
         <v>51</v>
@@ -5910,43 +5914,43 @@
         <v>31</v>
       </c>
       <c r="X31" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y31" s="65" t="s">
         <v>26</v>
       </c>
       <c r="Z31" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA31" s="65" t="s">
         <v>43</v>
       </c>
       <c r="AB31" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD31" s="70"/>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>20</v>
@@ -5955,19 +5959,19 @@
         <v>40</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K32" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="M32" s="63" t="s">
-        <v>239</v>
-      </c>
       <c r="N32" s="63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O32" s="63" t="s">
         <v>26</v>
@@ -5988,16 +5992,16 @@
         <v>20</v>
       </c>
       <c r="U32" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V32" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W32" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X32" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y32" s="65" t="s">
         <v>26</v>
@@ -6009,31 +6013,31 @@
         <v>43</v>
       </c>
       <c r="AB32" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD32" s="70"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>20</v>
@@ -6042,19 +6046,19 @@
         <v>40</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K33" s="63" t="s">
         <v>25</v>
       </c>
       <c r="L33" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M33" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="M33" s="63" t="s">
-        <v>239</v>
-      </c>
       <c r="N33" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O33" s="63" t="s">
         <v>26</v>
@@ -6075,16 +6079,16 @@
         <v>20</v>
       </c>
       <c r="U33" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V33" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W33" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X33" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y33" s="65" t="s">
         <v>26</v>
@@ -6102,25 +6106,25 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H34" s="68" t="s">
         <v>20</v>
@@ -6129,19 +6133,19 @@
         <v>40</v>
       </c>
       <c r="J34" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K34" s="78" t="s">
         <v>49</v>
       </c>
       <c r="L34" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M34" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N34" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="44" t="s">
         <v>26</v>
@@ -6162,52 +6166,52 @@
         <v>20</v>
       </c>
       <c r="U34" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X34" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA34" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="Y34" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AB34" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="AD34" s="70"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H35" s="68" t="s">
         <v>20</v>
@@ -6216,19 +6220,19 @@
         <v>40</v>
       </c>
       <c r="J35" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K35" s="78" t="s">
         <v>49</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M35" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N35" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O35" s="44" t="s">
         <v>26</v>
@@ -6249,52 +6253,52 @@
         <v>20</v>
       </c>
       <c r="U35" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="V35" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="W35" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="X35" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="V35" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="W35" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="X35" s="45" t="s">
-        <v>356</v>
-      </c>
       <c r="Y35" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z35" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA35" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AB35" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD35" s="70"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H36" s="68" t="s">
         <v>20</v>
@@ -6303,16 +6307,16 @@
         <v>20</v>
       </c>
       <c r="J36" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K36" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M36" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N36" s="68" t="s">
         <v>57</v>
@@ -6336,52 +6340,52 @@
         <v>20</v>
       </c>
       <c r="U36" s="84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V36" s="45" t="s">
         <v>26</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y36" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z36" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA36" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB36" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD36" s="70"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H37" s="68" t="s">
         <v>20</v>
@@ -6390,19 +6394,19 @@
         <v>20</v>
       </c>
       <c r="J37" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M37" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N37" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O37" s="53" t="s">
         <v>26</v>
@@ -6423,73 +6427,73 @@
         <v>20</v>
       </c>
       <c r="U37" s="84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V37" s="45" t="s">
         <v>26</v>
       </c>
       <c r="W37" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z37" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA37" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB37" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AD37" s="70"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F38" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>96</v>
-      </c>
       <c r="K38" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M38" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N38" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O38" s="53" t="s">
         <v>26</v>
@@ -6510,70 +6514,70 @@
         <v>20</v>
       </c>
       <c r="U38" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="V38" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="W38" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="X38" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="V38" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="W38" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="X38" s="45" t="s">
-        <v>358</v>
-      </c>
       <c r="Y38" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA38" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB38" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD38" s="70"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F39" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="68" t="s">
         <v>95</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>96</v>
       </c>
       <c r="K39" s="78" t="s">
         <v>49</v>
       </c>
       <c r="L39" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M39" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N39" s="68" t="s">
         <v>57</v>
@@ -6597,51 +6601,51 @@
         <v>20</v>
       </c>
       <c r="U39" s="84" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V39" s="45" t="s">
         <v>26</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X39" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z39" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA39" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="Y39" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z39" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA39" s="46" t="s">
-        <v>360</v>
-      </c>
       <c r="AB39" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H40" s="68" t="s">
         <v>20</v>
@@ -6650,19 +6654,19 @@
         <v>20</v>
       </c>
       <c r="J40" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K40" s="78" t="s">
         <v>49</v>
       </c>
       <c r="L40" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M40" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N40" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O40" s="53" t="s">
         <v>26</v>
@@ -6683,51 +6687,51 @@
         <v>20</v>
       </c>
       <c r="U40" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V40" s="45" t="s">
         <v>26</v>
       </c>
       <c r="W40" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z40" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA40" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H41" s="67" t="s">
         <v>20</v>
@@ -6742,7 +6746,7 @@
         <v>25</v>
       </c>
       <c r="L41" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M41" s="67" t="s">
         <v>21</v>
@@ -6769,51 +6773,51 @@
         <v>20</v>
       </c>
       <c r="U41" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V41" s="42" t="s">
         <v>26</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X41" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F42" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" s="40" t="s">
         <v>303</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>304</v>
       </c>
       <c r="H42" s="67" t="s">
         <v>20</v>
@@ -6828,7 +6832,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M42" s="67" t="s">
         <v>21</v>
@@ -6855,51 +6859,51 @@
         <v>20</v>
       </c>
       <c r="U42" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X42" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y42" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z42" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F43" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H43" s="67" t="s">
         <v>20</v>
@@ -6914,7 +6918,7 @@
         <v>25</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M43" s="67" t="s">
         <v>21</v>
@@ -6941,51 +6945,51 @@
         <v>20</v>
       </c>
       <c r="U43" s="84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W43" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y43" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z43" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA43" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB43" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X43" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y43" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z43" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA43" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB43" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H44" s="67" t="s">
         <v>39</v>
@@ -7000,7 +7004,7 @@
         <v>49</v>
       </c>
       <c r="L44" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M44" s="67" t="s">
         <v>50</v>
@@ -7027,72 +7031,72 @@
         <v>20</v>
       </c>
       <c r="U44" s="84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W44" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y44" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z44" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA44" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB44" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X44" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y44" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z44" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA44" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB44" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H45" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="I45" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="J45" s="67" t="s">
+      <c r="K45" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="K45" s="67" t="s">
+      <c r="L45" s="67" t="s">
         <v>385</v>
       </c>
-      <c r="L45" s="67" t="s">
+      <c r="M45" s="67" t="s">
         <v>386</v>
       </c>
-      <c r="M45" s="67" t="s">
+      <c r="N45" s="67" t="s">
         <v>387</v>
-      </c>
-      <c r="N45" s="67" t="s">
-        <v>388</v>
       </c>
       <c r="O45" s="44" t="s">
         <v>26</v>
@@ -7113,66 +7117,66 @@
         <v>20</v>
       </c>
       <c r="U45" s="84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W45" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y45" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z45" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA45" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB45" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X45" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y45" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z45" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA45" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB45" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="55">
         <v>54701863</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E46" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="F46" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="67" t="s">
-        <v>223</v>
-      </c>
       <c r="K46" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L46" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M46" s="67" t="s">
         <v>21</v>
@@ -7199,51 +7203,51 @@
         <v>20</v>
       </c>
       <c r="U46" s="84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V46" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W46" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y46" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z46" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA46" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB46" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X46" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y46" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z46" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA46" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB46" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" s="59">
         <v>55014660</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F47" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="44" t="s">
         <v>316</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>317</v>
       </c>
       <c r="H47" s="67" t="s">
         <v>39</v>
@@ -7252,19 +7256,19 @@
         <v>39</v>
       </c>
       <c r="J47" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L47" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M47" s="67" t="s">
         <v>50</v>
       </c>
       <c r="N47" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O47" s="44" t="s">
         <v>51</v>
@@ -7285,51 +7289,51 @@
         <v>20</v>
       </c>
       <c r="U47" s="84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V47" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W47" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X47" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y47" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z47" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA47" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB47" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X47" s="45" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y47" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z47" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA47" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB47" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="61">
         <v>54858186</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H48" s="67" t="s">
         <v>20</v>
@@ -7344,7 +7348,7 @@
         <v>25</v>
       </c>
       <c r="L48" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M48" s="67" t="s">
         <v>21</v>
@@ -7371,42 +7375,42 @@
         <v>20</v>
       </c>
       <c r="U48" s="84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W48" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X48" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y48" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z48" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA48" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB48" s="45" t="s">
         <v>368</v>
-      </c>
-      <c r="X48" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y48" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z48" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA48" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB48" s="45" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C49" s="61">
         <v>54932403</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>32</v>
@@ -7415,7 +7419,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>20</v>
@@ -7424,19 +7428,19 @@
         <v>20</v>
       </c>
       <c r="J49" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K49" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="K49" s="44" t="s">
+      <c r="L49" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M49" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="L49" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M49" s="44" t="s">
-        <v>324</v>
-      </c>
       <c r="N49" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O49" s="44" t="s">
         <v>26</v>
@@ -7457,72 +7461,72 @@
         <v>20</v>
       </c>
       <c r="U49" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="V49" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="W49" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X49" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="V49" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="W49" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="X49" s="45" t="s">
-        <v>367</v>
-      </c>
       <c r="Y49" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z49" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA49" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB49" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="61">
         <v>55049993</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H50" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M50" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="I50" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="J50" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="K50" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="L50" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M50" s="44" t="s">
-        <v>326</v>
-      </c>
       <c r="N50" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O50" s="44" t="s">
         <v>26</v>
@@ -7543,72 +7547,72 @@
         <v>20</v>
       </c>
       <c r="U50" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="V50" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="W50" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X50" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="V50" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="W50" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="X50" s="45" t="s">
-        <v>367</v>
-      </c>
       <c r="Y50" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z50" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA50" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB50" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C51" s="53">
         <v>54857526</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K51" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M51" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="I51" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="J51" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="L51" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>326</v>
-      </c>
       <c r="N51" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O51" s="44" t="s">
         <v>26</v>
@@ -7629,72 +7633,72 @@
         <v>20</v>
       </c>
       <c r="U51" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="V51" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="W51" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X51" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="V51" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="W51" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="X51" s="45" t="s">
-        <v>367</v>
-      </c>
       <c r="Y51" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z51" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA51" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB51" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C52" s="53">
         <v>55046375</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G52" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="H52" s="44" t="s">
+      <c r="K52" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="M52" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="I52" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="J52" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="M52" s="44" t="s">
+      <c r="N52" s="44" t="s">
         <v>326</v>
-      </c>
-      <c r="N52" s="44" t="s">
-        <v>327</v>
       </c>
       <c r="O52" s="44" t="s">
         <v>26</v>
@@ -7715,51 +7719,51 @@
         <v>20</v>
       </c>
       <c r="U52" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="V52" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="W52" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X52" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="V52" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="W52" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="X52" s="45" t="s">
-        <v>367</v>
-      </c>
       <c r="Y52" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA52" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB52" s="45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H53" s="68" t="s">
         <v>20</v>
@@ -7768,19 +7772,19 @@
         <v>20</v>
       </c>
       <c r="J53" s="68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K53" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L53" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M53" s="68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N53" s="68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O53" s="53" t="s">
         <v>26</v>
@@ -7801,51 +7805,51 @@
         <v>20</v>
       </c>
       <c r="U53" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="V53" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="W53" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="V53" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="W53" s="42" t="s">
-        <v>338</v>
-      </c>
       <c r="X53" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Z53" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AA53" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AB53" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H54" s="67" t="s">
         <v>20</v>
@@ -7860,7 +7864,7 @@
         <v>25</v>
       </c>
       <c r="L54" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M54" s="67" t="s">
         <v>21</v>
@@ -7884,54 +7888,54 @@
         <v>20</v>
       </c>
       <c r="T54" s="86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U54" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="W54" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="V54" s="42" t="s">
+      <c r="X54" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y54" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z54" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA54" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="W54" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="X54" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y54" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z54" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA54" s="43" t="s">
-        <v>335</v>
-      </c>
       <c r="AB54" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F55" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H55" s="67" t="s">
         <v>20</v>
@@ -7946,7 +7950,7 @@
         <v>49</v>
       </c>
       <c r="L55" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M55" s="67" t="s">
         <v>21</v>
@@ -7967,57 +7971,57 @@
         <v>25</v>
       </c>
       <c r="S55" s="86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="T55" s="86" t="s">
         <v>20</v>
       </c>
       <c r="U55" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="V55" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="W55" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="V55" s="42" t="s">
+      <c r="X55" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y55" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z55" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA55" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="W55" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="X55" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y55" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z55" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA55" s="43" t="s">
-        <v>335</v>
-      </c>
       <c r="AB55" s="41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H56" s="67" t="s">
         <v>20</v>
@@ -8032,7 +8036,7 @@
         <v>49</v>
       </c>
       <c r="L56" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M56" s="67" t="s">
         <v>21</v>
@@ -8053,34 +8057,34 @@
         <v>25</v>
       </c>
       <c r="S56" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="T56" s="86" t="s">
+        <v>338</v>
+      </c>
+      <c r="U56" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="V56" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="W56" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="X56" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y56" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="T56" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="U56" s="86" t="s">
-        <v>366</v>
-      </c>
-      <c r="V56" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="W56" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="X56" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y56" s="43" t="s">
-        <v>341</v>
-      </c>
       <c r="Z56" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AA56" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB56" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8113,10 +8117,10 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>33</v>
@@ -8196,10 +8200,10 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>62</v>
@@ -8253,13 +8257,13 @@
         <v>20</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>30</v>
@@ -8268,21 +8272,21 @@
         <v>26</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>63</v>
@@ -8336,13 +8340,13 @@
         <v>20</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W3" s="12" t="s">
         <v>30</v>
@@ -8351,21 +8355,21 @@
         <v>26</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>64</v>
@@ -8419,13 +8423,13 @@
         <v>20</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>53</v>
@@ -8434,21 +8438,21 @@
         <v>26</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>65</v>
@@ -8502,13 +8506,13 @@
         <v>20</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>53</v>
@@ -8517,21 +8521,21 @@
         <v>26</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>66</v>
@@ -8585,13 +8589,13 @@
         <v>20</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>53</v>
@@ -8600,10 +8604,10 @@
         <v>26</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>27</v>
@@ -8611,10 +8615,10 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>67</v>
@@ -8668,13 +8672,13 @@
         <v>20</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>53</v>
@@ -8686,7 +8690,7 @@
         <v>24</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>27</v>
@@ -8694,10 +8698,10 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>68</v>
@@ -8751,13 +8755,13 @@
         <v>20</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W8" s="12" t="s">
         <v>53</v>
@@ -8769,7 +8773,7 @@
         <v>24</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>27</v>
@@ -8777,10 +8781,10 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>69</v>
@@ -8834,25 +8838,25 @@
         <v>20</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X9" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>27</v>
@@ -8860,10 +8864,10 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>70</v>
@@ -8917,25 +8921,25 @@
         <v>39</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="X10" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y10" s="15" t="s">
         <v>52</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>27</v>
@@ -8943,10 +8947,10 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>71</v>
@@ -9009,27 +9013,27 @@
         <v>31</v>
       </c>
       <c r="W11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>87</v>
@@ -9092,27 +9096,27 @@
         <v>31</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>88</v>
@@ -9175,27 +9179,27 @@
         <v>31</v>
       </c>
       <c r="W13" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z13" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
@@ -9258,27 +9262,27 @@
         <v>31</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X14" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>90</v>
@@ -9332,7 +9336,7 @@
         <v>20</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>20</v>
@@ -9341,7 +9345,7 @@
         <v>20</v>
       </c>
       <c r="W15" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X15" s="17" t="s">
         <v>26</v>
@@ -9353,15 +9357,15 @@
         <v>43</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>72</v>
@@ -9415,7 +9419,7 @@
         <v>20</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>20</v>
@@ -9424,7 +9428,7 @@
         <v>20</v>
       </c>
       <c r="W16" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X16" s="17" t="s">
         <v>26</v>
@@ -9441,10 +9445,10 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>73</v>
@@ -9498,7 +9502,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>20</v>
@@ -9507,7 +9511,7 @@
         <v>20</v>
       </c>
       <c r="W17" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X17" s="17" t="s">
         <v>26</v>
@@ -9524,10 +9528,10 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>74</v>
@@ -9581,7 +9585,7 @@
         <v>20</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U18" s="13" t="s">
         <v>20</v>
@@ -9590,7 +9594,7 @@
         <v>20</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X18" s="17" t="s">
         <v>26</v>
@@ -9607,10 +9611,10 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>75</v>
@@ -9664,7 +9668,7 @@
         <v>20</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U19" s="13" t="s">
         <v>20</v>
@@ -9673,7 +9677,7 @@
         <v>20</v>
       </c>
       <c r="W19" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X19" s="17" t="s">
         <v>26</v>
@@ -9690,10 +9694,10 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>76</v>
@@ -9702,7 +9706,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
@@ -9714,7 +9718,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>25</v>
@@ -9723,7 +9727,7 @@
         <v>25</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="6" t="s">
         <v>57</v>
@@ -9747,13 +9751,13 @@
         <v>20</v>
       </c>
       <c r="T20" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U20" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V20" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W20" s="24" t="s">
         <v>30</v>
@@ -9762,21 +9766,21 @@
         <v>26</v>
       </c>
       <c r="Y20" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>77</v>
@@ -9785,7 +9789,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>38</v>
@@ -9797,7 +9801,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>25</v>
@@ -9806,10 +9810,10 @@
         <v>25</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>26</v>
@@ -9830,13 +9834,13 @@
         <v>20</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U21" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W21" s="24" t="s">
         <v>30</v>
@@ -9845,21 +9849,21 @@
         <v>26</v>
       </c>
       <c r="Y21" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z21" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>78</v>
@@ -9868,7 +9872,7 @@
         <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>47</v>
@@ -9880,7 +9884,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>25</v>
@@ -9889,10 +9893,10 @@
         <v>25</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>26</v>
@@ -9913,13 +9917,13 @@
         <v>20</v>
       </c>
       <c r="T22" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V22" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W22" s="24" t="s">
         <v>53</v>
@@ -9928,21 +9932,21 @@
         <v>26</v>
       </c>
       <c r="Y22" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>79</v>
@@ -9951,7 +9955,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
@@ -9963,7 +9967,7 @@
         <v>20</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>25</v>
@@ -9972,7 +9976,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>57</v>
@@ -9996,13 +10000,13 @@
         <v>20</v>
       </c>
       <c r="T23" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U23" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V23" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W23" s="24" t="s">
         <v>53</v>
@@ -10011,21 +10015,21 @@
         <v>26</v>
       </c>
       <c r="Y23" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z23" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>80</v>
@@ -10034,7 +10038,7 @@
         <v>34</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>47</v>
@@ -10046,7 +10050,7 @@
         <v>20</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>25</v>
@@ -10055,10 +10059,10 @@
         <v>25</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>26</v>
@@ -10079,13 +10083,13 @@
         <v>20</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U24" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V24" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W24" s="24" t="s">
         <v>53</v>
@@ -10094,10 +10098,10 @@
         <v>26</v>
       </c>
       <c r="Y24" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA24" s="7" t="s">
         <v>27</v>
@@ -10105,10 +10109,10 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>81</v>
@@ -10117,7 +10121,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>48</v>
@@ -10129,7 +10133,7 @@
         <v>20</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>25</v>
@@ -10138,10 +10142,10 @@
         <v>25</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>26</v>
@@ -10162,13 +10166,13 @@
         <v>20</v>
       </c>
       <c r="T25" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V25" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W25" s="24" t="s">
         <v>53</v>
@@ -10180,7 +10184,7 @@
         <v>24</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>27</v>
@@ -10188,10 +10192,10 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>82</v>
@@ -10200,7 +10204,7 @@
         <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>48</v>
@@ -10212,7 +10216,7 @@
         <v>20</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>25</v>
@@ -10221,7 +10225,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>57</v>
@@ -10245,13 +10249,13 @@
         <v>20</v>
       </c>
       <c r="T26" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U26" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V26" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W26" s="24" t="s">
         <v>53</v>
@@ -10263,7 +10267,7 @@
         <v>24</v>
       </c>
       <c r="Z26" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA26" s="7" t="s">
         <v>27</v>
@@ -10271,10 +10275,10 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>83</v>
@@ -10283,7 +10287,7 @@
         <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>48</v>
@@ -10295,7 +10299,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>25</v>
@@ -10304,10 +10308,10 @@
         <v>25</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>26</v>
@@ -10328,25 +10332,25 @@
         <v>20</v>
       </c>
       <c r="T27" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U27" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V27" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W27" s="24" t="s">
         <v>53</v>
       </c>
       <c r="X27" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y27" s="25" t="s">
         <v>24</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>27</v>
@@ -10354,10 +10358,10 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>84</v>
@@ -10366,7 +10370,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>48</v>
@@ -10378,7 +10382,7 @@
         <v>39</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>49</v>
@@ -10387,10 +10391,10 @@
         <v>49</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>51</v>
@@ -10411,25 +10415,25 @@
         <v>39</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U28" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V28" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W28" s="24" t="s">
         <v>53</v>
       </c>
       <c r="X28" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y28" s="25" t="s">
         <v>52</v>
       </c>
       <c r="Z28" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA28" s="7" t="s">
         <v>27</v>
@@ -10437,19 +10441,19 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>48</v>
@@ -10461,7 +10465,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>25</v>
@@ -10470,7 +10474,7 @@
         <v>25</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>57</v>
@@ -10503,36 +10507,36 @@
         <v>31</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X29" s="18" t="s">
         <v>26</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z29" s="18" t="s">
         <v>43</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>48</v>
@@ -10544,7 +10548,7 @@
         <v>39</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>49</v>
@@ -10553,10 +10557,10 @@
         <v>49</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>51</v>
@@ -10586,36 +10590,36 @@
         <v>31</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X30" s="18" t="s">
         <v>26</v>
       </c>
       <c r="Y30" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>48</v>
@@ -10627,7 +10631,7 @@
         <v>39</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>49</v>
@@ -10636,10 +10640,10 @@
         <v>49</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>51</v>
@@ -10669,36 +10673,36 @@
         <v>31</v>
       </c>
       <c r="W31" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X31" s="18" t="s">
         <v>26</v>
       </c>
       <c r="Y31" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z31" s="18" t="s">
         <v>43</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>38</v>
@@ -10710,7 +10714,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>25</v>
@@ -10719,10 +10723,10 @@
         <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>26</v>
@@ -10743,7 +10747,7 @@
         <v>20</v>
       </c>
       <c r="T32" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U32" s="14" t="s">
         <v>20</v>
@@ -10752,7 +10756,7 @@
         <v>20</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X32" s="18" t="s">
         <v>26</v>
@@ -10764,24 +10768,24 @@
         <v>43</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>38</v>
@@ -10793,7 +10797,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>25</v>
@@ -10802,7 +10806,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>57</v>
@@ -10826,7 +10830,7 @@
         <v>20</v>
       </c>
       <c r="T33" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U33" s="14" t="s">
         <v>20</v>
@@ -10835,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="W33" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X33" s="18" t="s">
         <v>26</v>
@@ -10852,7 +10856,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
@@ -10862,7 +10866,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>47</v>
@@ -10874,7 +10878,7 @@
         <v>20</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>25</v>
@@ -10883,10 +10887,10 @@
         <v>25</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>26</v>
@@ -10907,7 +10911,7 @@
         <v>20</v>
       </c>
       <c r="T34" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U34" s="14" t="s">
         <v>20</v>
@@ -10916,7 +10920,7 @@
         <v>20</v>
       </c>
       <c r="W34" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X34" s="18" t="s">
         <v>26</v>
@@ -10933,7 +10937,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="10" t="s">
@@ -10943,7 +10947,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>47</v>
@@ -10955,7 +10959,7 @@
         <v>20</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>25</v>
@@ -10964,10 +10968,10 @@
         <v>25</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>26</v>
@@ -10988,7 +10992,7 @@
         <v>20</v>
       </c>
       <c r="T35" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U35" s="14" t="s">
         <v>20</v>
@@ -10997,7 +11001,7 @@
         <v>20</v>
       </c>
       <c r="W35" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X35" s="18" t="s">
         <v>26</v>
@@ -11014,19 +11018,19 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>38</v>
@@ -11038,7 +11042,7 @@
         <v>20</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>25</v>
@@ -11047,7 +11051,7 @@
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>57</v>
@@ -11071,13 +11075,13 @@
         <v>20</v>
       </c>
       <c r="T36" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U36" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V36" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W36" s="24" t="s">
         <v>30</v>
@@ -11086,30 +11090,30 @@
         <v>26</v>
       </c>
       <c r="Y36" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z36" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>38</v>
@@ -11121,7 +11125,7 @@
         <v>20</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>25</v>
@@ -11130,10 +11134,10 @@
         <v>25</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>26</v>
@@ -11154,13 +11158,13 @@
         <v>20</v>
       </c>
       <c r="T37" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U37" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V37" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W37" s="24" t="s">
         <v>30</v>
@@ -11169,30 +11173,30 @@
         <v>26</v>
       </c>
       <c r="Y37" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z37" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>47</v>
@@ -11204,7 +11208,7 @@
         <v>20</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>25</v>
@@ -11213,10 +11217,10 @@
         <v>25</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>26</v>
@@ -11237,13 +11241,13 @@
         <v>20</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U38" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V38" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W38" s="24" t="s">
         <v>53</v>
@@ -11252,30 +11256,30 @@
         <v>26</v>
       </c>
       <c r="Y38" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z38" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA38" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>47</v>
@@ -11287,7 +11291,7 @@
         <v>20</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>25</v>
@@ -11296,7 +11300,7 @@
         <v>25</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>57</v>
@@ -11320,13 +11324,13 @@
         <v>20</v>
       </c>
       <c r="T39" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U39" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V39" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W39" s="24" t="s">
         <v>53</v>
@@ -11335,30 +11339,30 @@
         <v>26</v>
       </c>
       <c r="Y39" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z39" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>47</v>
@@ -11370,7 +11374,7 @@
         <v>20</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>25</v>
@@ -11379,10 +11383,10 @@
         <v>25</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>26</v>
@@ -11403,13 +11407,13 @@
         <v>20</v>
       </c>
       <c r="T40" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U40" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V40" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W40" s="24" t="s">
         <v>53</v>
@@ -11418,10 +11422,10 @@
         <v>26</v>
       </c>
       <c r="Y40" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z40" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA40" s="7" t="s">
         <v>27</v>
@@ -11429,19 +11433,19 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>48</v>
@@ -11453,7 +11457,7 @@
         <v>20</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>25</v>
@@ -11462,10 +11466,10 @@
         <v>25</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>26</v>
@@ -11486,13 +11490,13 @@
         <v>20</v>
       </c>
       <c r="T41" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U41" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V41" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W41" s="24" t="s">
         <v>53</v>
@@ -11504,7 +11508,7 @@
         <v>24</v>
       </c>
       <c r="Z41" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>27</v>
@@ -11512,17 +11516,17 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>48</v>
@@ -11534,7 +11538,7 @@
         <v>20</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>25</v>
@@ -11543,7 +11547,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>57</v>
@@ -11567,13 +11571,13 @@
         <v>20</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U42" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V42" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W42" s="24" t="s">
         <v>53</v>
@@ -11585,7 +11589,7 @@
         <v>24</v>
       </c>
       <c r="Z42" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA42" s="7" t="s">
         <v>27</v>
@@ -11593,17 +11597,17 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>48</v>
@@ -11615,7 +11619,7 @@
         <v>20</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>25</v>
@@ -11624,10 +11628,10 @@
         <v>25</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>26</v>
@@ -11648,25 +11652,25 @@
         <v>20</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U43" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V43" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W43" s="24" t="s">
         <v>53</v>
       </c>
       <c r="X43" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y43" s="25" t="s">
         <v>24</v>
       </c>
       <c r="Z43" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>27</v>
@@ -11674,19 +11678,19 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>48</v>
@@ -11698,7 +11702,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>49</v>
@@ -11707,10 +11711,10 @@
         <v>49</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>51</v>
@@ -11731,25 +11735,25 @@
         <v>39</v>
       </c>
       <c r="T44" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U44" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W44" s="24" t="s">
         <v>53</v>
       </c>
       <c r="X44" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y44" s="25" t="s">
         <v>52</v>
       </c>
       <c r="Z44" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA44" s="7" t="s">
         <v>27</v>
@@ -11757,19 +11761,19 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>48</v>
@@ -11781,7 +11785,7 @@
         <v>39</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>49</v>
@@ -11790,10 +11794,10 @@
         <v>49</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>51</v>
@@ -11814,25 +11818,25 @@
         <v>39</v>
       </c>
       <c r="T45" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U45" s="24" t="s">
         <v>26</v>
       </c>
       <c r="V45" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W45" s="24" t="s">
         <v>53</v>
       </c>
       <c r="X45" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y45" s="25" t="s">
         <v>52</v>
       </c>
       <c r="Z45" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>27</v>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="376">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,42 +768,6 @@
     <t>54952307</t>
   </si>
   <si>
-    <t>54801061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54713450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54892189</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54901243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54881000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55084907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54718801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54843504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54874968</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,26 +1042,6 @@
   </si>
   <si>
     <t>朱甚2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54769349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54991848</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55013170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54854669</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54912629</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1468,7 +1412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1555,8 +1499,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,6 +1620,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2103,7 +2070,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2267,26 +2234,11 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2363,6 +2315,39 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="398">
@@ -3094,47 +3079,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="76"/>
-    <col min="3" max="3" width="13.5" style="76" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="76"/>
-    <col min="5" max="5" width="7.1640625" style="73" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="73" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="73" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="73" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="73" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="73" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="77" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="12.83203125" style="77" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="77" hidden="1" customWidth="1"/>
-    <col min="19" max="27" width="7.1640625" style="73" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="73"/>
-    <col min="29" max="32" width="10.83203125" style="69"/>
-    <col min="33" max="43" width="10.83203125" style="70"/>
-    <col min="44" max="16384" width="10.83203125" style="72"/>
+    <col min="1" max="2" width="10.83203125" style="71"/>
+    <col min="3" max="3" width="20" style="93" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="71"/>
+    <col min="5" max="5" width="7.1640625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="68" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="68" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="68" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="68" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="68" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="72" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="12.83203125" style="72" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="72" hidden="1" customWidth="1"/>
+    <col min="19" max="27" width="7.1640625" style="68" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" style="68"/>
+    <col min="29" max="32" width="10.83203125" style="64"/>
+    <col min="33" max="43" width="10.83203125" style="65"/>
+    <col min="44" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="71" customFormat="1">
+    <row r="1" spans="1:43" s="66" customFormat="1">
       <c r="A1" s="47" t="s">
         <v>194</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="83" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -3158,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -3208,40 +3193,40 @@
       <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
     </row>
     <row r="2" spans="1:43">
       <c r="A2" s="49" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>38</v>
@@ -3258,8 +3243,8 @@
       <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67" t="s">
-        <v>237</v>
+      <c r="L2" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
@@ -3279,13 +3264,13 @@
       <c r="R2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="79" t="s">
+      <c r="U2" s="74" t="s">
         <v>105</v>
       </c>
       <c r="V2" s="24" t="s">
@@ -3298,10 +3283,10 @@
         <v>107</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA2" s="25" t="s">
         <v>109</v>
@@ -3315,13 +3300,13 @@
         <v>195</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>35</v>
@@ -3344,8 +3329,8 @@
       <c r="K3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="67" t="s">
-        <v>237</v>
+      <c r="L3" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>21</v>
@@ -3365,13 +3350,13 @@
       <c r="R3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="79" t="s">
+      <c r="S3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="74" t="s">
         <v>105</v>
       </c>
       <c r="V3" s="24" t="s">
@@ -3384,10 +3369,10 @@
         <v>107</v>
       </c>
       <c r="Y3" s="25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA3" s="25" t="s">
         <v>109</v>
@@ -3401,13 +3386,13 @@
         <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>214</v>
+        <v>271</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>36</v>
@@ -3430,8 +3415,8 @@
       <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>237</v>
+      <c r="L4" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>21</v>
@@ -3451,13 +3436,13 @@
       <c r="R4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="79" t="s">
+      <c r="S4" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V4" s="24" t="s">
@@ -3470,10 +3455,10 @@
         <v>53</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA4" s="25" t="s">
         <v>108</v>
@@ -3487,13 +3472,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>215</v>
+        <v>272</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -3516,8 +3501,8 @@
       <c r="K5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>237</v>
+      <c r="L5" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>21</v>
@@ -3537,13 +3522,13 @@
       <c r="R5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="79" t="s">
+      <c r="S5" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V5" s="24" t="s">
@@ -3556,10 +3541,10 @@
         <v>53</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA5" s="25" t="s">
         <v>108</v>
@@ -3573,13 +3558,13 @@
         <v>140</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>216</v>
+        <v>273</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>34</v>
@@ -3602,8 +3587,8 @@
       <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="67" t="s">
-        <v>237</v>
+      <c r="L6" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>21</v>
@@ -3623,13 +3608,13 @@
       <c r="R6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="79" t="s">
+      <c r="S6" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V6" s="24" t="s">
@@ -3642,16 +3627,16 @@
         <v>53</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA6" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -3659,13 +3644,13 @@
         <v>140</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>217</v>
+        <v>274</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -3688,8 +3673,8 @@
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>237</v>
+      <c r="L7" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>21</v>
@@ -3709,13 +3694,13 @@
       <c r="R7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="79" t="s">
+      <c r="S7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V7" s="24" t="s">
@@ -3737,7 +3722,7 @@
         <v>108</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -3745,13 +3730,13 @@
         <v>140</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>249</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -3774,8 +3759,8 @@
       <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="67" t="s">
-        <v>237</v>
+      <c r="L8" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>21</v>
@@ -3795,13 +3780,13 @@
       <c r="R8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="79" t="s">
+      <c r="S8" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V8" s="24" t="s">
@@ -3823,7 +3808,7 @@
         <v>108</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -3831,13 +3816,13 @@
         <v>140</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>219</v>
+        <v>275</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
@@ -3860,8 +3845,8 @@
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="67" t="s">
-        <v>237</v>
+      <c r="L9" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -3881,13 +3866,13 @@
       <c r="R9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="T9" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="79" t="s">
+      <c r="S9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="74" t="s">
         <v>104</v>
       </c>
       <c r="V9" s="24" t="s">
@@ -3909,7 +3894,7 @@
         <v>108</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -3917,13 +3902,13 @@
         <v>140</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>220</v>
+        <v>276</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -3946,8 +3931,8 @@
       <c r="K10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>237</v>
+      <c r="L10" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M10" s="32" t="s">
         <v>50</v>
@@ -3967,13 +3952,13 @@
       <c r="R10" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="79" t="s">
+      <c r="S10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="79" t="s">
+      <c r="T10" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="79" t="s">
+      <c r="U10" s="74" t="s">
         <v>106</v>
       </c>
       <c r="V10" s="24" t="s">
@@ -3995,7 +3980,7 @@
         <v>108</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -4003,16 +3988,16 @@
         <v>140</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>21</v>
@@ -4020,25 +4005,25 @@
       <c r="G11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="67" t="s">
+      <c r="H11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L11" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M11" s="67" t="s">
+      <c r="K11" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="62" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="37" t="s">
@@ -4053,13 +4038,13 @@
       <c r="R11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="80" t="s">
+      <c r="S11" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T11" s="80" t="s">
+      <c r="T11" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U11" s="80" t="s">
+      <c r="U11" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V11" s="38" t="s">
@@ -4075,7 +4060,7 @@
         <v>26</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="AA11" s="39" t="s">
         <v>118</v>
@@ -4083,23 +4068,23 @@
       <c r="AB11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC11" s="73"/>
+      <c r="AC11" s="68"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="50" t="s">
         <v>196</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="C12" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="85" t="s">
         <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>21</v>
@@ -4107,25 +4092,25 @@
       <c r="G12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="67" t="s">
+      <c r="H12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M12" s="67" t="s">
+      <c r="K12" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M12" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="62" t="s">
         <v>55</v>
       </c>
       <c r="O12" s="37" t="s">
@@ -4140,13 +4125,13 @@
       <c r="R12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="80" t="s">
+      <c r="S12" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T12" s="80" t="s">
+      <c r="T12" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V12" s="38" t="s">
@@ -4162,7 +4147,7 @@
         <v>26</v>
       </c>
       <c r="Z12" s="39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="AA12" s="39" t="s">
         <v>118</v>
@@ -4176,16 +4161,16 @@
         <v>145</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="85" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>21</v>
@@ -4193,25 +4178,25 @@
       <c r="G13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="67" t="s">
+      <c r="H13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M13" s="67" t="s">
+      <c r="K13" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O13" s="37" t="s">
@@ -4226,13 +4211,13 @@
       <c r="R13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="80" t="s">
+      <c r="S13" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T13" s="80" t="s">
+      <c r="T13" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U13" s="80" t="s">
+      <c r="U13" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V13" s="38" t="s">
@@ -4248,7 +4233,7 @@
         <v>26</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="AA13" s="39" t="s">
         <v>43</v>
@@ -4262,16 +4247,16 @@
         <v>145</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="85" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>21</v>
@@ -4279,25 +4264,25 @@
       <c r="G14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="67" t="s">
+      <c r="H14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L14" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M14" s="67" t="s">
+      <c r="K14" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="62" t="s">
         <v>56</v>
       </c>
       <c r="O14" s="37" t="s">
@@ -4312,13 +4297,13 @@
       <c r="R14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="80" t="s">
+      <c r="S14" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T14" s="80" t="s">
+      <c r="T14" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="80" t="s">
+      <c r="U14" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V14" s="38" t="s">
@@ -4334,7 +4319,7 @@
         <v>26</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="AA14" s="39" t="s">
         <v>43</v>
@@ -4348,16 +4333,16 @@
         <v>145</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="85" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>21</v>
@@ -4365,25 +4350,25 @@
       <c r="G15" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="67" t="s">
+      <c r="H15" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L15" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M15" s="67" t="s">
+      <c r="K15" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M15" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="62" t="s">
         <v>57</v>
       </c>
       <c r="O15" s="37" t="s">
@@ -4398,13 +4383,13 @@
       <c r="R15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="80" t="s">
+      <c r="S15" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="80" t="s">
+      <c r="T15" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U15" s="80" t="s">
+      <c r="U15" s="75" t="s">
         <v>117</v>
       </c>
       <c r="V15" s="38" t="s">
@@ -4417,7 +4402,7 @@
         <v>108</v>
       </c>
       <c r="Y15" s="39" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>31</v>
@@ -4434,16 +4419,16 @@
         <v>141</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="86" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>21</v>
@@ -4451,25 +4436,25 @@
       <c r="G16" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="67" t="s">
+      <c r="H16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M16" s="67" t="s">
+      <c r="K16" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="62" t="s">
         <v>48</v>
       </c>
       <c r="O16" s="37" t="s">
@@ -4484,13 +4469,13 @@
       <c r="R16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="80" t="s">
+      <c r="S16" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T16" s="80" t="s">
+      <c r="T16" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U16" s="80" t="s">
+      <c r="U16" s="75" t="s">
         <v>117</v>
       </c>
       <c r="V16" s="38" t="s">
@@ -4506,7 +4491,7 @@
         <v>26</v>
       </c>
       <c r="Z16" s="39" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA16" s="39" t="s">
         <v>43</v>
@@ -4520,16 +4505,16 @@
         <v>141</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="86" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F17" s="37" t="s">
         <v>21</v>
@@ -4537,25 +4522,25 @@
       <c r="G17" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="67" t="s">
+      <c r="H17" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L17" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M17" s="67" t="s">
+      <c r="K17" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="62" t="s">
         <v>55</v>
       </c>
       <c r="O17" s="37" t="s">
@@ -4570,13 +4555,13 @@
       <c r="R17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="80" t="s">
+      <c r="S17" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T17" s="80" t="s">
+      <c r="T17" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U17" s="80" t="s">
+      <c r="U17" s="75" t="s">
         <v>117</v>
       </c>
       <c r="V17" s="38" t="s">
@@ -4592,7 +4577,7 @@
         <v>26</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>43</v>
@@ -4606,16 +4591,16 @@
         <v>143</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>21</v>
@@ -4623,25 +4608,25 @@
       <c r="G18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="67" t="s">
+      <c r="H18" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L18" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M18" s="67" t="s">
+      <c r="K18" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O18" s="37" t="s">
@@ -4656,13 +4641,13 @@
       <c r="R18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="80" t="s">
+      <c r="S18" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T18" s="80" t="s">
+      <c r="T18" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U18" s="80" t="s">
+      <c r="U18" s="75" t="s">
         <v>117</v>
       </c>
       <c r="V18" s="38" t="s">
@@ -4678,7 +4663,7 @@
         <v>26</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA18" s="39" t="s">
         <v>43</v>
@@ -4686,23 +4671,23 @@
       <c r="AB18" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AC18" s="73"/>
+      <c r="AC18" s="68"/>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="86" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>50</v>
@@ -4710,25 +4695,25 @@
       <c r="G19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L19" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M19" s="67" t="s">
+      <c r="K19" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="67" t="s">
+      <c r="N19" s="62" t="s">
         <v>58</v>
       </c>
       <c r="O19" s="37" t="s">
@@ -4743,13 +4728,13 @@
       <c r="R19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="S19" s="80" t="s">
+      <c r="S19" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="T19" s="80" t="s">
+      <c r="T19" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="80" t="s">
+      <c r="U19" s="75" t="s">
         <v>117</v>
       </c>
       <c r="V19" s="38" t="s">
@@ -4765,7 +4750,7 @@
         <v>26</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA19" s="39" t="s">
         <v>43</v>
@@ -4774,18 +4759,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:43" s="74" customFormat="1">
+    <row r="20" spans="1:43" s="69" customFormat="1">
       <c r="A20" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="86" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>34</v>
@@ -4808,8 +4793,8 @@
       <c r="K20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="67" t="s">
-        <v>237</v>
+      <c r="L20" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>97</v>
@@ -4829,20 +4814,20 @@
       <c r="R20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="T20" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="U20" s="82" t="s">
+      <c r="S20" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="T20" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="U20" s="77" t="s">
         <v>105</v>
       </c>
       <c r="V20" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W20" s="35" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="X20" s="35" t="s">
         <v>107</v>
@@ -4859,34 +4844,34 @@
       <c r="AB20" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="70"/>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="70"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
     </row>
-    <row r="21" spans="1:43" s="74" customFormat="1">
+    <row r="21" spans="1:43" s="69" customFormat="1">
       <c r="A21" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="86" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>34</v>
@@ -4909,8 +4894,8 @@
       <c r="K21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="67" t="s">
-        <v>237</v>
+      <c r="L21" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M21" s="34" t="s">
         <v>97</v>
@@ -4930,20 +4915,20 @@
       <c r="R21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S21" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="T21" s="81" t="s">
-        <v>342</v>
-      </c>
-      <c r="U21" s="82" t="s">
+      <c r="S21" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="T21" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="U21" s="77" t="s">
         <v>105</v>
       </c>
       <c r="V21" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W21" s="35" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="X21" s="35" t="s">
         <v>107</v>
@@ -4960,34 +4945,34 @@
       <c r="AB21" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="70"/>
-      <c r="AQ21" s="70"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="65"/>
+      <c r="AI21" s="65"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="65"/>
+      <c r="AM21" s="65"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="65"/>
+      <c r="AQ21" s="65"/>
     </row>
-    <row r="22" spans="1:43" s="74" customFormat="1">
+    <row r="22" spans="1:43" s="69" customFormat="1">
       <c r="A22" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="86" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>34</v>
@@ -5010,8 +4995,8 @@
       <c r="K22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="67" t="s">
-        <v>237</v>
+      <c r="L22" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>97</v>
@@ -5031,20 +5016,20 @@
       <c r="R22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="T22" s="81" t="s">
-        <v>341</v>
-      </c>
-      <c r="U22" s="82" t="s">
+      <c r="S22" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="T22" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="U22" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V22" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="X22" s="35" t="s">
         <v>53</v>
@@ -5061,34 +5046,34 @@
       <c r="AB22" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="70"/>
-      <c r="AO22" s="70"/>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="70"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
+      <c r="AI22" s="65"/>
+      <c r="AJ22" s="65"/>
+      <c r="AK22" s="65"/>
+      <c r="AL22" s="65"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="65"/>
+      <c r="AO22" s="65"/>
+      <c r="AP22" s="65"/>
+      <c r="AQ22" s="65"/>
     </row>
-    <row r="23" spans="1:43" s="74" customFormat="1">
+    <row r="23" spans="1:43" s="69" customFormat="1">
       <c r="A23" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C23" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>34</v>
@@ -5111,8 +5096,8 @@
       <c r="K23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="67" t="s">
-        <v>237</v>
+      <c r="L23" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M23" s="34" t="s">
         <v>97</v>
@@ -5132,20 +5117,20 @@
       <c r="R23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S23" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="82" t="s">
+      <c r="S23" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V23" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W23" s="35" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="X23" s="35" t="s">
         <v>53</v>
@@ -5154,42 +5139,42 @@
         <v>110</v>
       </c>
       <c r="Z23" s="36" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AA23" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB23" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
+        <v>333</v>
+      </c>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
     </row>
-    <row r="24" spans="1:43" s="74" customFormat="1">
+    <row r="24" spans="1:43" s="69" customFormat="1">
       <c r="A24" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="86" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>34</v>
@@ -5212,8 +5197,8 @@
       <c r="K24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="67" t="s">
-        <v>237</v>
+      <c r="L24" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>97</v>
@@ -5233,20 +5218,20 @@
       <c r="R24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S24" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="82" t="s">
+      <c r="S24" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V24" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W24" s="35" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="X24" s="35" t="s">
         <v>53</v>
@@ -5255,42 +5240,42 @@
         <v>110</v>
       </c>
       <c r="Z24" s="36" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AA24" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB24" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="70"/>
-      <c r="AO24" s="70"/>
-      <c r="AP24" s="70"/>
-      <c r="AQ24" s="70"/>
+        <v>333</v>
+      </c>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
     </row>
-    <row r="25" spans="1:43" s="74" customFormat="1">
+    <row r="25" spans="1:43" s="69" customFormat="1">
       <c r="A25" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C25" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="86" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>34</v>
@@ -5313,8 +5298,8 @@
       <c r="K25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="67" t="s">
-        <v>237</v>
+      <c r="L25" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M25" s="34" t="s">
         <v>97</v>
@@ -5334,20 +5319,20 @@
       <c r="R25" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="82" t="s">
+      <c r="S25" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V25" s="35" t="s">
         <v>26</v>
       </c>
       <c r="W25" s="35" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="X25" s="35" t="s">
         <v>53</v>
@@ -5356,42 +5341,42 @@
         <v>110</v>
       </c>
       <c r="Z25" s="36" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="AA25" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB25" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="70"/>
-      <c r="AN25" s="70"/>
-      <c r="AO25" s="70"/>
-      <c r="AP25" s="70"/>
-      <c r="AQ25" s="70"/>
+        <v>333</v>
+      </c>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
     </row>
-    <row r="26" spans="1:43" s="74" customFormat="1">
+    <row r="26" spans="1:43" s="69" customFormat="1">
       <c r="A26" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="86" t="s">
         <v>82</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>34</v>
@@ -5414,8 +5399,8 @@
       <c r="K26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="67" t="s">
-        <v>237</v>
+      <c r="L26" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>97</v>
@@ -5435,13 +5420,13 @@
       <c r="R26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="82" t="s">
+      <c r="S26" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V26" s="35" t="s">
@@ -5457,42 +5442,42 @@
         <v>110</v>
       </c>
       <c r="Z26" s="36" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AA26" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB26" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="70"/>
-      <c r="AO26" s="70"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
+        <v>335</v>
+      </c>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
     </row>
-    <row r="27" spans="1:43" s="74" customFormat="1">
+    <row r="27" spans="1:43" s="69" customFormat="1">
       <c r="A27" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>34</v>
@@ -5515,8 +5500,8 @@
       <c r="K27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="67" t="s">
-        <v>237</v>
+      <c r="L27" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M27" s="34" t="s">
         <v>97</v>
@@ -5536,13 +5521,13 @@
       <c r="R27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="S27" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" s="82" t="s">
+      <c r="S27" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="77" t="s">
         <v>104</v>
       </c>
       <c r="V27" s="35" t="s">
@@ -5558,42 +5543,42 @@
         <v>111</v>
       </c>
       <c r="Z27" s="36" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AA27" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB27" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="70"/>
-      <c r="AN27" s="70"/>
-      <c r="AO27" s="70"/>
-      <c r="AP27" s="70"/>
-      <c r="AQ27" s="70"/>
+        <v>335</v>
+      </c>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="86" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>34</v>
@@ -5616,8 +5601,8 @@
       <c r="K28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="67" t="s">
-        <v>237</v>
+      <c r="L28" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M28" s="34" t="s">
         <v>97</v>
@@ -5637,13 +5622,13 @@
       <c r="R28" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S28" s="81" t="s">
+      <c r="S28" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="81" t="s">
+      <c r="T28" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="U28" s="82" t="s">
+      <c r="U28" s="77" t="s">
         <v>106</v>
       </c>
       <c r="V28" s="35" t="s">
@@ -5659,492 +5644,492 @@
         <v>112</v>
       </c>
       <c r="Z28" s="36" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AA28" s="36" t="s">
         <v>108</v>
       </c>
       <c r="AB28" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD28" s="70"/>
+        <v>335</v>
+      </c>
+      <c r="AD28" s="65"/>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="63" t="s">
+      <c r="B29" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>199</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E29" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="63" t="s">
+      <c r="F29" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="67" t="s">
+      <c r="J29" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="M29" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N29" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="O29" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="63" t="s">
+      <c r="K29" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P29" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="63" t="s">
+      <c r="Q29" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="R29" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="U29" s="83" t="s">
+      <c r="R29" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="W29" s="64" t="s">
+      <c r="V29" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="W29" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="X29" s="64" t="s">
+      <c r="X29" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Y29" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z29" s="65" t="s">
+      <c r="Y29" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="AA29" s="65" t="s">
+      <c r="AA29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB29" s="63" t="s">
+      <c r="AB29" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AD29" s="70"/>
+      <c r="AD29" s="65"/>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" s="63" t="s">
+      <c r="B30" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>200</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="66" t="s">
+      <c r="F30" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="J30" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="K30" s="66" t="s">
+      <c r="J30" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M30" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N30" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="O30" s="66" t="s">
+      <c r="L30" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="66" t="s">
+      <c r="P30" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" s="66" t="s">
+      <c r="Q30" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="R30" s="66" t="s">
+      <c r="R30" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="S30" s="83" t="s">
+      <c r="S30" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="T30" s="83" t="s">
+      <c r="T30" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="83" t="s">
+      <c r="U30" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="W30" s="64" t="s">
+      <c r="V30" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="W30" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="64" t="s">
+      <c r="X30" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Y30" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z30" s="65" t="s">
+      <c r="Y30" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z30" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="AA30" s="65" t="s">
+      <c r="AA30" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB30" s="63" t="s">
+      <c r="AB30" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AD30" s="70"/>
+      <c r="AD30" s="65"/>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="63" t="s">
+      <c r="B31" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="86" t="s">
         <v>201</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E31" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31" s="66" t="s">
+      <c r="F31" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="K31" s="66" t="s">
+      <c r="J31" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M31" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N31" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="O31" s="66" t="s">
+      <c r="L31" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="66" t="s">
+      <c r="P31" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="66" t="s">
+      <c r="Q31" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="R31" s="66" t="s">
+      <c r="R31" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="S31" s="83" t="s">
+      <c r="S31" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="T31" s="83" t="s">
+      <c r="T31" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="U31" s="83" t="s">
+      <c r="U31" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="V31" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="W31" s="64" t="s">
+      <c r="V31" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="W31" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="X31" s="64" t="s">
+      <c r="X31" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Y31" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z31" s="65" t="s">
+      <c r="Y31" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z31" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="AA31" s="65" t="s">
+      <c r="AA31" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB31" s="63" t="s">
+      <c r="AB31" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="AD31" s="70"/>
+      <c r="AD31" s="65"/>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="63" t="s">
+      <c r="B32" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="86" t="s">
         <v>202</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F32" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="63" t="s">
+      <c r="F32" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="K32" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="67" t="s">
+      <c r="J32" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="M32" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N32" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="O32" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" s="63" t="s">
+      <c r="K32" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="63" t="s">
+      <c r="Q32" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="U32" s="83" t="s">
+      <c r="R32" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="V32" s="64" t="s">
+      <c r="V32" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="W32" s="64" t="s">
+      <c r="W32" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="X32" s="64" t="s">
+      <c r="X32" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32" s="65" t="s">
+      <c r="Y32" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AA32" s="65" t="s">
+      <c r="AA32" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB32" s="63" t="s">
+      <c r="AB32" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="AD32" s="70"/>
+      <c r="AD32" s="65"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>272</v>
-      </c>
-      <c r="C33" s="63" t="s">
+      <c r="B33" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="86" t="s">
         <v>203</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E33" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="63" t="s">
+      <c r="F33" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="K33" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="67" t="s">
+      <c r="J33" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="63" t="s">
+      <c r="K33" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M33" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="O33" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="63" t="s">
+      <c r="N33" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="Q33" s="63" t="s">
+      <c r="Q33" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="T33" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="U33" s="83" t="s">
+      <c r="R33" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="V33" s="64" t="s">
+      <c r="V33" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="W33" s="64" t="s">
+      <c r="W33" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="X33" s="64" t="s">
+      <c r="X33" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="Y33" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33" s="65" t="s">
+      <c r="Y33" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AA33" s="65" t="s">
+      <c r="AA33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB33" s="63" t="s">
+      <c r="AB33" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AD33" s="70"/>
+      <c r="AD33" s="65"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="86" t="s">
         <v>85</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="68" t="s">
+      <c r="J34" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="78" t="s">
+      <c r="K34" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M34" s="68" t="s">
+      <c r="L34" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N34" s="68" t="s">
+      <c r="N34" s="63" t="s">
         <v>100</v>
       </c>
       <c r="O34" s="44" t="s">
@@ -6159,79 +6144,79 @@
       <c r="R34" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S34" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="U34" s="87" t="s">
-        <v>373</v>
+      <c r="S34" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="82" t="s">
+        <v>359</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>124</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="AA34" s="15" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AB34" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD34" s="70"/>
+        <v>338</v>
+      </c>
+      <c r="AD34" s="65"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>294</v>
+      <c r="B35" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>86</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="68" t="s">
+      <c r="J35" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K35" s="78" t="s">
+      <c r="K35" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L35" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M35" s="68" t="s">
+      <c r="L35" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M35" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="68" t="s">
+      <c r="N35" s="63" t="s">
         <v>126</v>
       </c>
       <c r="O35" s="44" t="s">
@@ -6246,79 +6231,79 @@
       <c r="R35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S35" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T35" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U35" s="84" t="s">
-        <v>354</v>
+      <c r="S35" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="79" t="s">
+        <v>340</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="W35" s="45" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Y35" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z35" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA35" s="46" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="AB35" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD35" s="70"/>
+        <v>346</v>
+      </c>
+      <c r="AD35" s="65"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>295</v>
+      <c r="B36" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K36" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M36" s="68" t="s">
+      <c r="K36" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N36" s="68" t="s">
+      <c r="N36" s="63" t="s">
         <v>57</v>
       </c>
       <c r="O36" s="53" t="s">
@@ -6333,79 +6318,79 @@
       <c r="R36" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S36" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="84" t="s">
+      <c r="S36" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="79" t="s">
         <v>105</v>
       </c>
       <c r="V36" s="45" t="s">
         <v>26</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Y36" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z36" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA36" s="46" t="s">
         <v>109</v>
       </c>
       <c r="AB36" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD36" s="70"/>
+        <v>346</v>
+      </c>
+      <c r="AD36" s="65"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>296</v>
+      <c r="B37" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G37" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H37" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M37" s="68" t="s">
+      <c r="K37" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="63" t="s">
         <v>100</v>
       </c>
       <c r="O37" s="53" t="s">
@@ -6420,13 +6405,13 @@
       <c r="R37" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S37" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="T37" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="84" t="s">
+      <c r="S37" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="79" t="s">
         <v>105</v>
       </c>
       <c r="V37" s="45" t="s">
@@ -6436,63 +6421,63 @@
         <v>125</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z37" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA37" s="46" t="s">
         <v>109</v>
       </c>
       <c r="AB37" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD37" s="70"/>
+        <v>346</v>
+      </c>
+      <c r="AD37" s="65"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>297</v>
+      <c r="B38" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F38" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="H38" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K38" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M38" s="68" t="s">
+      <c r="K38" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M38" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="63" t="s">
         <v>101</v>
       </c>
       <c r="O38" s="53" t="s">
@@ -6507,14 +6492,14 @@
       <c r="R38" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S38" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="T38" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="U38" s="84" t="s">
-        <v>356</v>
+      <c r="S38" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="79" t="s">
+        <v>342</v>
       </c>
       <c r="V38" s="45" t="s">
         <v>26</v>
@@ -6523,63 +6508,63 @@
         <v>125</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="Y38" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z38" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA38" s="46" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AB38" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="AD38" s="70"/>
+        <v>347</v>
+      </c>
+      <c r="AD38" s="65"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="E39" s="44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>94</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="68" t="s">
+        <v>282</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K39" s="78" t="s">
+      <c r="K39" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L39" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M39" s="68" t="s">
+      <c r="L39" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M39" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="68" t="s">
+      <c r="N39" s="63" t="s">
         <v>57</v>
       </c>
       <c r="O39" s="53" t="s">
@@ -6594,14 +6579,14 @@
       <c r="R39" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S39" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="T39" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="U39" s="84" t="s">
-        <v>355</v>
+      <c r="S39" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="79" t="s">
+        <v>341</v>
       </c>
       <c r="V39" s="45" t="s">
         <v>26</v>
@@ -6610,19 +6595,19 @@
         <v>125</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="Y39" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z39" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA39" s="46" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AB39" s="44" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -6630,42 +6615,42 @@
         <v>147</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="87" t="s">
         <v>132</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="68" t="s">
+        <v>281</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K40" s="78" t="s">
+      <c r="K40" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M40" s="68" t="s">
+      <c r="L40" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M40" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N40" s="68" t="s">
+      <c r="N40" s="63" t="s">
         <v>100</v>
       </c>
       <c r="O40" s="53" t="s">
@@ -6680,13 +6665,13 @@
       <c r="R40" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S40" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="T40" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="U40" s="84" t="s">
+      <c r="S40" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="79" t="s">
         <v>104</v>
       </c>
       <c r="V40" s="45" t="s">
@@ -6696,19 +6681,19 @@
         <v>125</v>
       </c>
       <c r="X40" s="45" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z40" s="46" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA40" s="46" t="s">
         <v>108</v>
       </c>
       <c r="AB40" s="44" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -6716,42 +6701,42 @@
         <v>147</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>207</v>
+        <v>283</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>133</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="H41" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K41" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M41" s="67" t="s">
+      <c r="K41" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M41" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="67" t="s">
+      <c r="N41" s="62" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="40" t="s">
@@ -6766,78 +6751,78 @@
       <c r="R41" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S41" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="T41" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="U41" s="86" t="s">
+      <c r="S41" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="81" t="s">
         <v>117</v>
       </c>
       <c r="V41" s="42" t="s">
         <v>26</v>
       </c>
       <c r="W41" s="42" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="X41" s="42" t="s">
         <v>108</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA41" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB41" s="40" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>208</v>
+        <v>284</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>204</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="H42" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H42" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K42" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M42" s="67" t="s">
+      <c r="K42" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M42" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="67" t="s">
+      <c r="N42" s="62" t="s">
         <v>55</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -6852,78 +6837,78 @@
       <c r="R42" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S42" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="T42" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="U42" s="86" t="s">
+      <c r="S42" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="81" t="s">
         <v>117</v>
       </c>
       <c r="V42" s="42" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="W42" s="42" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="X42" s="42" t="s">
         <v>108</v>
       </c>
       <c r="Y42" s="43" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z42" s="43" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA42" s="43" t="s">
         <v>43</v>
       </c>
       <c r="AB42" s="40" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B43" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="58" t="s">
-        <v>209</v>
+      <c r="C43" s="88" t="s">
+        <v>205</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F43" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="H43" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M43" s="67" t="s">
+      <c r="K43" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="67" t="s">
+      <c r="N43" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O43" s="44" t="s">
@@ -6938,78 +6923,78 @@
       <c r="R43" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T43" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U43" s="84" t="s">
+      <c r="S43" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="V43" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="W43" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y43" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z43" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA43" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB43" s="45" t="s">
         <v>354</v>
-      </c>
-      <c r="V43" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="W43" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="X43" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y43" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z43" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA43" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB43" s="45" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>210</v>
+        <v>291</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="H44" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="67" t="s">
+      <c r="J44" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K44" s="78" t="s">
+      <c r="K44" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L44" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M44" s="67" t="s">
+      <c r="L44" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M44" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="67" t="s">
+      <c r="N44" s="62" t="s">
         <v>56</v>
       </c>
       <c r="O44" s="44" t="s">
@@ -7024,79 +7009,79 @@
       <c r="R44" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="S44" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T44" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U44" s="84" t="s">
+      <c r="S44" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="V44" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="W44" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y44" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z44" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA44" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB44" s="45" t="s">
         <v>354</v>
-      </c>
-      <c r="V44" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="W44" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="X44" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y44" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z44" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA44" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB44" s="45" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>211</v>
+        <v>292</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>207</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="H45" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="I45" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="J45" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="K45" s="67" t="s">
-        <v>384</v>
-      </c>
-      <c r="L45" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="M45" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="N45" s="67" t="s">
-        <v>387</v>
+        <v>278</v>
+      </c>
+      <c r="H45" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="O45" s="44" t="s">
         <v>26</v>
@@ -7110,78 +7095,78 @@
       <c r="R45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S45" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T45" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U45" s="84" t="s">
-        <v>336</v>
+      <c r="S45" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="79" t="s">
+        <v>322</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W45" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X45" s="45" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Y45" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z45" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA45" s="46" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AB45" s="45" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="55">
-        <v>54701863</v>
+        <v>292</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>208</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E46" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="H46" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L46" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="H46" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="K46" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L46" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="67" t="s">
+      <c r="N46" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O46" s="44" t="s">
@@ -7196,79 +7181,79 @@
       <c r="R46" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S46" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="84" t="s">
+      <c r="S46" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="V46" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="W46" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y46" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z46" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA46" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB46" s="45" t="s">
         <v>354</v>
-      </c>
-      <c r="V46" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="W46" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="X46" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y46" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z46" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA46" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB46" s="45" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C47" s="59">
-        <v>55014660</v>
+        <v>293</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>209</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>316</v>
-      </c>
-      <c r="H47" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="H47" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="67" t="s">
+      <c r="I47" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J47" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="K47" s="67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L47" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M47" s="67" t="s">
+      <c r="J47" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="K47" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M47" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="N47" s="67" t="s">
-        <v>388</v>
+      <c r="N47" s="62" t="s">
+        <v>374</v>
       </c>
       <c r="O47" s="44" t="s">
         <v>51</v>
@@ -7282,78 +7267,78 @@
       <c r="R47" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="S47" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U47" s="84" t="s">
+      <c r="S47" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="V47" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="W47" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X47" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y47" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z47" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA47" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB47" s="45" t="s">
         <v>354</v>
-      </c>
-      <c r="V47" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="W47" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="X47" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y47" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z47" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA47" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB47" s="45" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="C48" s="61">
-        <v>54858186</v>
+        <v>293</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>210</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>317</v>
-      </c>
-      <c r="H48" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K48" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M48" s="67" t="s">
+      <c r="K48" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M48" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="67" t="s">
+      <c r="N48" s="62" t="s">
         <v>55</v>
       </c>
       <c r="O48" s="44" t="s">
@@ -7368,49 +7353,49 @@
       <c r="R48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S48" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U48" s="84" t="s">
-        <v>336</v>
+      <c r="S48" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" s="79" t="s">
+        <v>322</v>
       </c>
       <c r="V48" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W48" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X48" s="45" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Y48" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z48" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA48" s="46" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AB48" s="45" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C49" s="61">
-        <v>54932403</v>
+        <v>294</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>211</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>32</v>
@@ -7419,7 +7404,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>20</v>
@@ -7428,19 +7413,19 @@
         <v>20</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="L49" s="67" t="s">
-        <v>237</v>
+        <v>308</v>
+      </c>
+      <c r="L49" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M49" s="44" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="N49" s="44" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="O49" s="44" t="s">
         <v>26</v>
@@ -7454,35 +7439,35 @@
       <c r="R49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S49" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T49" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U49" s="84" t="s">
-        <v>365</v>
+      <c r="S49" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="V49" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W49" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X49" s="45" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Y49" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z49" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA49" s="46" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AB49" s="45" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -7490,43 +7475,43 @@
         <v>197</v>
       </c>
       <c r="B50" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="61">
-        <v>55049993</v>
+        <v>295</v>
+      </c>
+      <c r="C50" s="89">
+        <v>54701863</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="L50" s="67" t="s">
-        <v>237</v>
+        <v>308</v>
+      </c>
+      <c r="L50" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M50" s="44" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N50" s="44" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O50" s="44" t="s">
         <v>26</v>
@@ -7540,35 +7525,35 @@
       <c r="R50" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T50" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U50" s="84" t="s">
-        <v>365</v>
+      <c r="S50" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T50" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="V50" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W50" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X50" s="45" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z50" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA50" s="46" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AB50" s="45" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -7576,43 +7561,43 @@
         <v>198</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="C51" s="53">
-        <v>54857526</v>
+        <v>296</v>
+      </c>
+      <c r="C51" s="90">
+        <v>55014660</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E51" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K51" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="L51" s="67" t="s">
-        <v>237</v>
+        <v>308</v>
+      </c>
+      <c r="L51" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M51" s="44" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N51" s="44" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O51" s="44" t="s">
         <v>26</v>
@@ -7626,79 +7611,79 @@
       <c r="R51" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S51" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T51" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U51" s="84" t="s">
-        <v>365</v>
+      <c r="S51" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="V51" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W51" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X51" s="45" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z51" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA51" s="46" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AB51" s="45" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:28">
-      <c r="A52" s="60" t="s">
-        <v>225</v>
+      <c r="A52" s="56" t="s">
+        <v>216</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="53">
-        <v>55046375</v>
+        <v>290</v>
+      </c>
+      <c r="C52" s="91">
+        <v>54858186</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>34</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G52" s="53" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J52" s="44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K52" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>237</v>
+        <v>308</v>
+      </c>
+      <c r="L52" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="N52" s="44" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="O52" s="44" t="s">
         <v>26</v>
@@ -7712,78 +7697,78 @@
       <c r="R52" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="S52" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="T52" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="U52" s="84" t="s">
-        <v>365</v>
+      <c r="S52" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="T52" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="V52" s="45" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W52" s="45" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="X52" s="45" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Y52" s="46" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z52" s="46" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="AA52" s="46" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AB52" s="45" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:28">
-      <c r="A53" s="60" t="s">
-        <v>224</v>
+      <c r="A53" s="56" t="s">
+        <v>215</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>133</v>
+        <v>265</v>
+      </c>
+      <c r="C53" s="91">
+        <v>54932403</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="H53" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H53" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="K53" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M53" s="68" t="s">
+      <c r="K53" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M53" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="N53" s="68" t="s">
+      <c r="N53" s="63" t="s">
         <v>101</v>
       </c>
       <c r="O53" s="53" t="s">
@@ -7798,78 +7783,78 @@
       <c r="R53" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S53" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="T53" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="U53" s="86" t="s">
-        <v>336</v>
+      <c r="S53" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="81" t="s">
+        <v>322</v>
       </c>
       <c r="V53" s="42" t="s">
         <v>26</v>
       </c>
       <c r="W53" s="42" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="X53" s="42" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Y53" s="43" t="s">
         <v>26</v>
       </c>
       <c r="Z53" s="43" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="AA53" s="43" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AB53" s="41" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:28">
-      <c r="A54" s="60" t="s">
-        <v>224</v>
+      <c r="A54" s="56" t="s">
+        <v>215</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>204</v>
+        <v>244</v>
+      </c>
+      <c r="C54" s="91">
+        <v>55049993</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="H54" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K54" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M54" s="67" t="s">
+      <c r="K54" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M54" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="67" t="s">
+      <c r="N54" s="62" t="s">
         <v>22</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -7884,78 +7869,78 @@
       <c r="R54" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S54" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="T54" s="86" t="s">
+      <c r="S54" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="U54" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="V54" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="W54" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="X54" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y54" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z54" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA54" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB54" s="41" t="s">
         <v>338</v>
-      </c>
-      <c r="U54" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="V54" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="W54" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="X54" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y54" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z54" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA54" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB54" s="41" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:28">
-      <c r="A55" s="75" t="s">
-        <v>248</v>
+      <c r="A55" s="70" t="s">
+        <v>239</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>205</v>
+        <v>270</v>
+      </c>
+      <c r="C55" s="92">
+        <v>54857526</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F55" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="H55" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K55" s="78" t="s">
+      <c r="K55" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L55" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M55" s="67" t="s">
+      <c r="L55" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M55" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="67" t="s">
+      <c r="N55" s="62" t="s">
         <v>56</v>
       </c>
       <c r="O55" s="40" t="s">
@@ -7970,78 +7955,78 @@
       <c r="R55" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S55" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="T55" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="U55" s="86" t="s">
-        <v>336</v>
+      <c r="S55" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="T55" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="U55" s="81" t="s">
+        <v>322</v>
       </c>
       <c r="V55" s="42" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="W55" s="42" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="X55" s="42" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Y55" s="43" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="Z55" s="43" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="AA55" s="43" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AB55" s="41" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:28">
-      <c r="A56" s="75" t="s">
-        <v>249</v>
+      <c r="A56" s="70" t="s">
+        <v>240</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>206</v>
+        <v>245</v>
+      </c>
+      <c r="C56" s="92">
+        <v>55046375</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="H56" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="K56" s="78" t="s">
+      <c r="K56" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="M56" s="67" t="s">
+      <c r="L56" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="M56" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="67" t="s">
+      <c r="N56" s="62" t="s">
         <v>57</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -8056,35 +8041,35 @@
       <c r="R56" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S56" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="T56" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="U56" s="86" t="s">
-        <v>365</v>
+      <c r="S56" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="T56" s="81" t="s">
+        <v>324</v>
+      </c>
+      <c r="U56" s="81" t="s">
+        <v>351</v>
       </c>
       <c r="V56" s="42" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="W56" s="42" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="X56" s="42" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="Y56" s="43" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Z56" s="43" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="AA56" s="43" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="AB56" s="41" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/init/create_strategy.xlsx
+++ b/init/create_strategy.xlsx
@@ -3079,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
